--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="114">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -229,30 +229,12 @@
     <t>['119.77', '113.98', '118.1']</t>
   </si>
   <si>
-    <t>uniform 0.1, 0.1</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>~0.0</t>
-  </si>
-  <si>
-    <t>uniform 0.2, 0.1</t>
-  </si>
-  <si>
     <t>0.75, 0.3</t>
   </si>
   <si>
     <t>solver type</t>
   </si>
   <si>
-    <t>SEA+FCN</t>
-  </si>
-  <si>
-    <t>CMA-ES+FCN</t>
-  </si>
-  <si>
     <t>layers</t>
   </si>
   <si>
@@ -280,12 +262,6 @@
     <t>Simple Evolutionary Algorithm (standard SGA with floats)</t>
   </si>
   <si>
-    <t>Fully-Connected Net</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>Covariance Matrix Adaptation Evolution Strategy</t>
   </si>
   <si>
@@ -344,6 +320,45 @@
   </si>
   <si>
     <t>* relative comparison against other players from bachelor thesis (first result is our model)</t>
+  </si>
+  <si>
+    <t>2857.33</t>
+  </si>
+  <si>
+    <t>2764.11</t>
+  </si>
+  <si>
+    <t>133.78</t>
+  </si>
+  <si>
+    <t>** Fixed bug with shared weights</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>0.5, 0.3</t>
+  </si>
+  <si>
+    <t>uniform 0.3, 0.1</t>
+  </si>
+  <si>
+    <t>5851.63</t>
+  </si>
+  <si>
+    <t>5848.18</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>SEA+MLP</t>
+  </si>
+  <si>
+    <t>Fully-Connected Net (multi-layer-perceptron)</t>
+  </si>
+  <si>
+    <t>CMA-ES+MLP</t>
   </si>
 </sst>
 </file>
@@ -663,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,7 +1121,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,39 +1136,39 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1174,12 +1186,12 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1206,202 +1218,202 @@
         <v>7</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="14">
         <v>50</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>200</v>
       </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>5</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>16</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>10</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="14">
         <v>50</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>200</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>5</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>5</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>64</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>10</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="A11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14">
         <v>50</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>200</v>
       </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>5</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>16</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>10</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="14">
         <v>50</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>200</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>16</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>10</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="A13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="14">
         <v>50</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>200</v>
       </c>
-      <c r="F13" s="16">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>16</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>10</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="10"/>
@@ -1410,40 +1422,40 @@
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="14">
         <v>50</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>200</v>
       </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>5</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>16</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>10</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="10"/>
@@ -1452,40 +1464,40 @@
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="A15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="19">
         <v>50</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>200</v>
       </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>5</v>
-      </c>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>5</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>16</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>10</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="10"/>
@@ -1494,40 +1506,40 @@
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="19">
         <v>50</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>200</v>
       </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>5</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>16</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>10</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="10"/>
@@ -1536,40 +1548,40 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="A17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="19">
         <v>50</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>1000</v>
       </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>5</v>
-      </c>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>5</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>16</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>10</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="M17" s="13"/>
@@ -1578,40 +1590,40 @@
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="19">
         <v>25</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>200</v>
       </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>5</v>
-      </c>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>5</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="22">
-        <v>5</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="21">
+        <v>5</v>
+      </c>
+      <c r="L18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="10"/>
@@ -1620,40 +1632,40 @@
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="19">
         <v>50</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>140</v>
       </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>5</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>10</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="10"/>
@@ -1662,40 +1674,40 @@
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="20">
+      <c r="A20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="19">
         <v>50</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>320</v>
       </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>5</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="22">
-        <v>5</v>
-      </c>
-      <c r="L20" s="18" t="s">
+      <c r="J20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="21">
+        <v>5</v>
+      </c>
+      <c r="L20" s="17" t="s">
         <v>47</v>
       </c>
       <c r="M20" s="10"/>
@@ -1704,40 +1716,40 @@
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="A21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="19">
         <v>50</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>5000</v>
       </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>5</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="22">
-        <v>5</v>
-      </c>
-      <c r="L21" s="18" t="s">
+      <c r="K21" s="21">
+        <v>5</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>54</v>
       </c>
       <c r="M21" s="10"/>
@@ -1746,41 +1758,41 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="28">
+        <v>50</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>5</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="31">
+        <v>10</v>
+      </c>
+      <c r="L22" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" s="29">
-        <v>50</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="30">
-        <v>5</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="32">
-        <v>10</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>82</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1794,13 +1806,13 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1815,61 +1827,125 @@
         <v>7</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="20">
+      <c r="A25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="19">
         <v>25</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="C25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="20">
         <v>500</v>
       </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>5</v>
-      </c>
-      <c r="I25" s="22" t="s">
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <v>5</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="16">
         <v>16</v>
       </c>
-      <c r="K25" s="22">
-        <v>5</v>
-      </c>
-      <c r="L25" s="18" t="s">
+      <c r="K25" s="21">
+        <v>5</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="19">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="20">
+        <v>500</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>5</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="16">
+        <v>64</v>
+      </c>
+      <c r="K26" s="21">
+        <v>10</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="19">
+        <v>25</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="20">
+        <v>500</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>5</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="21">
+        <v>10</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="M44" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J46" s="8"/>
@@ -1877,43 +1953,43 @@
       <c r="L46" s="8"/>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M65" s="19"/>
+      <c r="M65" s="18"/>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M66" s="19"/>
+      <c r="M66" s="18"/>
     </row>
     <row r="87" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M87" s="19"/>
+      <c r="M87" s="18"/>
     </row>
     <row r="88" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M88" s="19"/>
+      <c r="M88" s="18"/>
     </row>
     <row r="89" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M89" s="19"/>
+      <c r="M89" s="18"/>
     </row>
     <row r="90" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M90" s="19"/>
+      <c r="M90" s="18"/>
     </row>
     <row r="91" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M91" s="19"/>
+      <c r="M91" s="18"/>
     </row>
     <row r="92" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M92" s="19"/>
+      <c r="M92" s="18"/>
     </row>
     <row r="93" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M93" s="19"/>
+      <c r="M93" s="18"/>
     </row>
     <row r="94" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M94" s="19"/>
+      <c r="M94" s="18"/>
     </row>
     <row r="95" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M95" s="19"/>
+      <c r="M95" s="18"/>
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M110" s="19"/>
+      <c r="M110" s="18"/>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M111" s="19"/>
+      <c r="M111" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1931,7 +2007,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,63 +2023,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -2026,7 +2102,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8"/>
@@ -2038,11 +2114,11 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>92</v>
+      <c r="A10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
@@ -2069,398 +2145,398 @@
         <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>50</v>
       </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>5</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>16</v>
       </c>
-      <c r="L11" s="17">
-        <v>5</v>
-      </c>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="16">
+        <v>5</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>97</v>
+      <c r="N11" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>25</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>50</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>5</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="22">
-        <v>5</v>
-      </c>
-      <c r="M12" s="21" t="s">
+      <c r="L12" s="21">
+        <v>5</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="23"/>
+      <c r="N12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="22"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>25</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>50</v>
       </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>5</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>5</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="22">
-        <v>5</v>
-      </c>
-      <c r="M13" s="21" t="s">
+      <c r="L13" s="21">
+        <v>5</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>25</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>100</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>5</v>
-      </c>
-      <c r="I14" s="30" t="s">
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>5</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="32">
-        <v>5</v>
-      </c>
-      <c r="M14" s="30" t="s">
+      <c r="L14" s="31">
+        <v>5</v>
+      </c>
+      <c r="M14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" s="23"/>
+      <c r="N14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="22"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>110</v>
       </c>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
-        <v>5</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>5</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="21">
-        <v>5</v>
-      </c>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="20">
+        <v>5</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="23"/>
+      <c r="N17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="22"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>25</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>500</v>
       </c>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
-        <v>5</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>5</v>
+      </c>
+      <c r="I18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>32</v>
       </c>
-      <c r="L18" s="21">
-        <v>5</v>
-      </c>
-      <c r="M18" s="21" t="s">
+      <c r="L18" s="20">
+        <v>5</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="23"/>
+      <c r="N18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="22"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>25</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>1000</v>
       </c>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
-        <v>5</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>5</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>64</v>
       </c>
-      <c r="L19" s="21">
-        <v>5</v>
-      </c>
-      <c r="M19" s="21" t="s">
+      <c r="L19" s="20">
+        <v>5</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="23"/>
+      <c r="N19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="22"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -2475,130 +2551,130 @@
         <v>7</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>77</v>
+      <c r="A24" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>10</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="D24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="15">
         <v>100</v>
       </c>
-      <c r="G24" s="16">
-        <v>5</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="G24" s="15">
+        <v>5</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="16">
         <v>8</v>
       </c>
-      <c r="L24" s="17">
-        <v>5</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>95</v>
+      <c r="L24" s="16">
+        <v>5</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>77</v>
+      <c r="A25" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="D25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="15">
         <v>500</v>
       </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>5</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>5</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="17">
-        <v>5</v>
-      </c>
-      <c r="M25" s="16" t="s">
+      <c r="K25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="16">
+        <v>5</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="16" t="s">
-        <v>103</v>
+      <c r="N25" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>77</v>
+      <c r="A26" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>20</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="D26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="15">
         <v>500</v>
       </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>5</v>
-      </c>
-      <c r="J26" s="17" t="s">
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>5</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>16</v>
       </c>
-      <c r="L26" s="17">
-        <v>5</v>
-      </c>
-      <c r="M26" s="16" t="s">
+      <c r="L26" s="16">
+        <v>5</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="16" t="s">
-        <v>104</v>
+      <c r="N26" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2697,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,39 +2711,39 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,7 +2752,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="8"/>
@@ -2687,11 +2763,11 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>75</v>
+      <c r="A8" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
@@ -2718,516 +2794,557 @@
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>180</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>5</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>16</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>107</v>
+      <c r="M9" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>20</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>100</v>
       </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>5</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>16</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>200</v>
       </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>5</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>16</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>20</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>200</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>5</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>16</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>200</v>
       </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>5</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>5</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>20</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>500</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>5</v>
-      </c>
-      <c r="I14" s="30" t="s">
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>5</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>32</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="A15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="29">
+        <v>20</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>5</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="29">
+        <v>32</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3245,7 +3362,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,39 +3374,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3303,7 +3420,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="10"/>
@@ -3315,8 +3432,8 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>75</v>
+      <c r="A7" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -3343,126 +3460,122 @@
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="15">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>5</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="15">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16">
-        <v>32</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="J8" s="15">
+        <v>64</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="21">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="21">
-        <v>500</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>5</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="20">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="20">
+        <v>400</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="21">
-        <v>32</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="J9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="122">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -334,9 +334,6 @@
     <t>** Fixed bug with shared weights</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>0.5, 0.3</t>
   </si>
   <si>
@@ -359,6 +356,33 @@
   </si>
   <si>
     <t>CMA-ES+MLP</t>
+  </si>
+  <si>
+    <t>** Inputs scale changed (now it's log_2(x))</t>
+  </si>
+  <si>
+    <t>0.75, 0.2</t>
+  </si>
+  <si>
+    <t>64, 128</t>
+  </si>
+  <si>
+    <t>3328.5</t>
+  </si>
+  <si>
+    <t>TODO**</t>
+  </si>
+  <si>
+    <t>131.57</t>
+  </si>
+  <si>
+    <t>0.25, 0.2</t>
+  </si>
+  <si>
+    <t>128, 128</t>
+  </si>
+  <si>
+    <t>130.41</t>
   </si>
 </sst>
 </file>
@@ -415,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -536,19 +560,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -678,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -738,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -747,37 +758,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -786,23 +794,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1129,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,37 +1146,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,7 +1237,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="14">
         <v>50</v>
@@ -1267,7 +1275,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="14">
         <v>50</v>
@@ -1305,7 +1313,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="14">
         <v>50</v>
@@ -1343,7 +1351,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="14">
         <v>50</v>
@@ -1381,7 +1389,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
@@ -1423,7 +1431,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="14">
         <v>50</v>
@@ -1465,7 +1473,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="19">
         <v>50</v>
@@ -1507,7 +1515,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="19">
         <v>50</v>
@@ -1549,7 +1557,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="19">
         <v>50</v>
@@ -1591,7 +1599,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="19">
         <v>25</v>
@@ -1633,7 +1641,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="19">
         <v>50</v>
@@ -1675,7 +1683,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="19">
         <v>50</v>
@@ -1717,7 +1725,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="19">
         <v>50</v>
@@ -1758,40 +1766,40 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="A22" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="27">
         <v>50</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>1000</v>
       </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
-        <v>5</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="31" t="s">
+      <c r="I22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="30">
         <v>10</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>76</v>
       </c>
       <c r="M22" s="10"/>
@@ -1799,139 +1807,180 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="27">
+        <v>50</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <v>5</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="30">
+        <v>10</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="19">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="19">
         <v>25</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E30" s="20">
         <v>500</v>
       </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <v>5</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="16">
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <v>5</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="16">
         <v>16</v>
       </c>
-      <c r="K25" s="21">
-        <v>5</v>
-      </c>
-      <c r="L25" s="17" t="s">
+      <c r="K30" s="21">
+        <v>5</v>
+      </c>
+      <c r="L30" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="19">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="19">
         <v>25</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E31" s="20">
         <v>500</v>
       </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>5</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
+        <v>5</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="16">
         <v>64</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K31" s="21">
         <v>10</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L31" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="19">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="19">
         <v>25</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E32" s="20">
         <v>500</v>
       </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <v>5</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>5</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K32" s="21">
         <v>10</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L32" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2025,61 +2074,61 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -2102,7 +2151,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="8"/>
@@ -2114,10 +2163,10 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2147,19 +2196,19 @@
       <c r="K10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="36" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>35</v>
@@ -2206,7 +2255,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>35</v>
@@ -2253,7 +2302,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>35</v>
@@ -2299,46 +2348,46 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>25</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>100</v>
       </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>5</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>5</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="J14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="31">
-        <v>5</v>
-      </c>
-      <c r="M14" s="29" t="s">
+      <c r="L14" s="30">
+        <v>5</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="28" t="s">
         <v>91</v>
       </c>
       <c r="O14" s="22"/>
@@ -2346,36 +2395,36 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2422,7 +2471,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -2469,7 +2518,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -2529,7 +2578,7 @@
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2553,19 +2602,19 @@
       <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="36" t="s">
         <v>73</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>49</v>
@@ -2603,7 +2652,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>49</v>
@@ -2641,7 +2690,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>49</v>
@@ -2697,7 +2746,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,37 +2762,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2752,7 +2801,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="8"/>
@@ -2763,7 +2812,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2799,13 +2848,13 @@
       <c r="L8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>52</v>
@@ -2846,7 +2895,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>52</v>
@@ -2885,16 +2934,16 @@
         <v>61</v>
       </c>
       <c r="N10" s="18"/>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>52</v>
@@ -2933,14 +2982,14 @@
         <v>64</v>
       </c>
       <c r="N11" s="18"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -2979,14 +3028,14 @@
         <v>66</v>
       </c>
       <c r="N12" s="18"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>52</v>
@@ -3030,43 +3079,43 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="15">
         <v>500</v>
       </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>5</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="29">
+      <c r="J14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="15">
         <v>32</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="15" t="s">
         <v>69</v>
       </c>
       <c r="N14" s="18"/>
@@ -3075,44 +3124,44 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>20</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>1000</v>
       </c>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>5</v>
-      </c>
-      <c r="I15" s="29" t="s">
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>5</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="J15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="28">
         <v>32</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>105</v>
+      <c r="M15" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18" t="s">
@@ -3122,63 +3171,102 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="20">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="20">
+        <v>450</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>5</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="A17" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="28">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>5</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -3376,37 +3464,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3420,7 +3508,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="10"/>
@@ -3432,7 +3520,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3468,16 +3556,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="15">
         <v>10</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="15">
         <v>100</v>
@@ -3498,22 +3586,22 @@
         <v>64</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="20">
         <v>10</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="20">
         <v>400</v>
@@ -3534,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" s="23"/>
     </row>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="126">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -367,9 +367,6 @@
     <t>64, 128</t>
   </si>
   <si>
-    <t>3328.5</t>
-  </si>
-  <si>
     <t>TODO**</t>
   </si>
   <si>
@@ -383,6 +380,21 @@
   </si>
   <si>
     <t>130.41</t>
+  </si>
+  <si>
+    <t>uniform 0.1, 0.1</t>
+  </si>
+  <si>
+    <t>512, 512</t>
+  </si>
+  <si>
+    <t>5845.06</t>
+  </si>
+  <si>
+    <t>5846.07</t>
+  </si>
+  <si>
+    <t>3328.5**</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
@@ -2055,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3173,7 @@
         <v>103</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18" t="s">
@@ -3181,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>12</v>
@@ -3202,13 +3214,13 @@
         <v>9</v>
       </c>
       <c r="K16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="M16" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -3250,10 +3262,10 @@
         <v>44</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -3450,12 +3462,12 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
@@ -3625,6 +3637,108 @@
         <v>108</v>
       </c>
       <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="20">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="20">
+        <v>160</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="15">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
+        <v>460</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="127">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -358,9 +358,6 @@
     <t>CMA-ES+MLP</t>
   </si>
   <si>
-    <t>** Inputs scale changed (now it's log_2(x))</t>
-  </si>
-  <si>
     <t>0.75, 0.2</t>
   </si>
   <si>
@@ -394,7 +391,13 @@
     <t>5846.07</t>
   </si>
   <si>
-    <t>3328.5**</t>
+    <t>* Inputs scale changed (now it's log_2(x))</t>
+  </si>
+  <si>
+    <t>3328.5*</t>
+  </si>
+  <si>
+    <t>** Inpus scale bug fix (need to be computed)</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1835,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>12</v>
@@ -1853,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="30">
         <v>10</v>
@@ -1863,9 +1866,14 @@
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2067,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3181,7 @@
         <v>103</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18" t="s">
@@ -3193,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>12</v>
@@ -3214,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="K16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="M16" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -3238,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>37</v>
@@ -3262,10 +3270,10 @@
         <v>44</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -3646,10 +3654,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="20">
         <v>160</v>
@@ -3667,10 +3675,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3737,7 +3745,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="130">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -397,7 +397,16 @@
     <t>3328.5*</t>
   </si>
   <si>
-    <t>** Inpus scale bug fix (need to be computed)</t>
+    <t>256, 256</t>
+  </si>
+  <si>
+    <t>** Inpus scale bug fix</t>
+  </si>
+  <si>
+    <t>3314.26**</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,8 +1880,44 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="21">
+        <v>50</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="21">
+        <v>750</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>5</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="21">
+        <v>10</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2075,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,18 +2460,48 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="A15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="20">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="20">
+        <v>500</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>5</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="20">
+        <v>5</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
@@ -2443,7 +2518,7 @@
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B17" s="20" t="s">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>Default scale - div by 2048</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1830,9 @@
         <v>76</v>
       </c>
       <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
@@ -2120,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="142">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -331,9 +331,6 @@
     <t>133.78</t>
   </si>
   <si>
-    <t>** Fixed bug with shared weights</t>
-  </si>
-  <si>
     <t>0.5, 0.3</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>0.75, 0.2</t>
   </si>
   <si>
-    <t>64, 128</t>
-  </si>
-  <si>
     <t>TODO**</t>
   </si>
   <si>
@@ -391,32 +385,71 @@
     <t>5846.07</t>
   </si>
   <si>
-    <t>* Inputs scale changed (now it's log_2(x))</t>
-  </si>
-  <si>
-    <t>3328.5*</t>
-  </si>
-  <si>
     <t>256, 256</t>
   </si>
   <si>
-    <t>** Inpus scale bug fix</t>
-  </si>
-  <si>
-    <t>3314.26**</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
-    <t>Default scale - div by 2048</t>
+    <t>inputs scale</t>
+  </si>
+  <si>
+    <t>div 2048</t>
+  </si>
+  <si>
+    <t>3314.26</t>
+  </si>
+  <si>
+    <t>log(x) or 0</t>
+  </si>
+  <si>
+    <t>SEA+ESN</t>
+  </si>
+  <si>
+    <t>ESN</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>Number of read-outs from echo state network</t>
+  </si>
+  <si>
+    <t>Echo-State-Netwrok</t>
+  </si>
+  <si>
+    <t>esn:256, ro:32</t>
+  </si>
+  <si>
+    <t>4347.37</t>
+  </si>
+  <si>
+    <t>Random: 1077.92</t>
+  </si>
+  <si>
+    <t>Random: 0.04511</t>
+  </si>
+  <si>
+    <t>Random: 82.66**</t>
+  </si>
+  <si>
+    <t>** notice that the Alhambra "model" within the game is still the same (rule system has just random "weights")</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>↑ There was a bug within the game phases, causing that individual weights were shared amongst phases (all phases used first 'n' values); leaving results here just for compare</t>
+  </si>
+  <si>
+    <t>Random: 6.016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +466,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +512,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -712,11 +765,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,9 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,7 +906,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -842,6 +937,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1155,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,46 +1268,73 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,13 +1346,15 @@
       <c r="D7" s="11">
         <v>2048</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,675 +1388,705 @@
       <c r="J8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>75</v>
       </c>
+      <c r="M8" s="38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="13">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>200</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>5</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>16</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>10</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="13">
         <v>50</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>200</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>5</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>64</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>10</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="M10" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="13">
         <v>50</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>200</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>5</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>16</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>10</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="M11" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="13">
         <v>50</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>200</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>5</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>16</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>10</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="M12" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="13">
         <v>50</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>200</v>
       </c>
-      <c r="F13" s="15">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="14">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>16</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>10</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="13">
         <v>50</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>200</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>5</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>16</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>10</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="A15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="18">
         <v>50</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>200</v>
       </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>5</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>5</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>16</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>10</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="18">
         <v>50</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>200</v>
       </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>5</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>16</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>10</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="18">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>1000</v>
       </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>5</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>5</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <v>16</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>10</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="18">
         <v>25</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>200</v>
       </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <v>5</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>5</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="21">
-        <v>5</v>
-      </c>
-      <c r="L18" s="17" t="s">
+      <c r="K18" s="20">
+        <v>5</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="A19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="18">
         <v>50</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>140</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <v>5</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>10</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="18">
         <v>50</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>320</v>
       </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>5</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="21">
-        <v>5</v>
-      </c>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="20">
+        <v>5</v>
+      </c>
+      <c r="L20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="A21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="18">
         <v>50</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>5000</v>
       </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>5</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>5</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="21">
-        <v>5</v>
-      </c>
-      <c r="L21" s="17" t="s">
+      <c r="K21" s="20">
+        <v>5</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="27">
+      <c r="A22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="26">
         <v>50</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>1000</v>
       </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="28">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <v>10</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="M22" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M23" s="10"/>
+      <c r="A23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27">
+        <v>50</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="27">
+        <v>750</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>5</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="29">
+        <v>10</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>110</v>
+      <c r="A24" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="B24" s="27">
         <v>50</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="28">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="28">
-        <v>5</v>
-      </c>
-      <c r="H24" s="28" t="s">
+      <c r="E24" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>5</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="30">
+      <c r="J24" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="29">
         <v>10</v>
       </c>
-      <c r="L24" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="L24" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="21">
-        <v>50</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21">
-        <v>750</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>5</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="21">
-        <v>10</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1951,120 +2114,94 @@
       <c r="J29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="A30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="18">
         <v>25</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>500</v>
       </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
-        <v>5</v>
-      </c>
-      <c r="I30" s="21" t="s">
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>5</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="16">
-        <v>16</v>
-      </c>
-      <c r="K30" s="21">
-        <v>5</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>47</v>
+      <c r="J30" s="15">
+        <v>64</v>
+      </c>
+      <c r="K30" s="20">
+        <v>10</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="A31" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="18">
         <v>25</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="20">
-        <v>500</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
-        <v>5</v>
-      </c>
-      <c r="I31" s="21" t="s">
+      <c r="E31" s="19">
+        <v>200</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>5</v>
+      </c>
+      <c r="I31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="16">
-        <v>64</v>
-      </c>
-      <c r="K31" s="21">
+      <c r="J31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="20">
         <v>10</v>
       </c>
-      <c r="L31" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="19">
-        <v>25</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="20">
-        <v>500</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <v>5</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="21">
-        <v>10</v>
-      </c>
-      <c r="L32" s="17" t="s">
+      <c r="L31" s="16" t="s">
         <v>102</v>
       </c>
+      <c r="M31" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J46" s="8"/>
@@ -2072,49 +2209,52 @@
       <c r="L46" s="8"/>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M65" s="18"/>
+      <c r="M65" s="17"/>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M66" s="18"/>
+      <c r="M66" s="17"/>
     </row>
     <row r="87" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M87" s="18"/>
+      <c r="M87" s="17"/>
     </row>
     <row r="88" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M88" s="18"/>
+      <c r="M88" s="17"/>
     </row>
     <row r="89" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M89" s="18"/>
+      <c r="M89" s="17"/>
     </row>
     <row r="90" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M90" s="18"/>
+      <c r="M90" s="17"/>
     </row>
     <row r="91" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M91" s="18"/>
+      <c r="M91" s="17"/>
     </row>
     <row r="92" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M92" s="18"/>
+      <c r="M92" s="17"/>
     </row>
     <row r="93" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M93" s="18"/>
+      <c r="M93" s="17"/>
     </row>
     <row r="94" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M94" s="18"/>
+      <c r="M94" s="17"/>
     </row>
     <row r="95" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M95" s="18"/>
+      <c r="M95" s="17"/>
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M110" s="18"/>
+      <c r="M110" s="17"/>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M111" s="18"/>
+      <c r="M111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2126,7 +2266,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,6 +2274,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
@@ -2144,61 +2286,61 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -2221,11 +2363,13 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="46"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2233,10 +2377,10 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2266,57 +2410,57 @@
       <c r="K10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="34" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>50</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>5</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>5</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>16</v>
       </c>
-      <c r="L11" s="16">
-        <v>5</v>
-      </c>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="15">
+        <v>5</v>
+      </c>
+      <c r="M11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="14" t="s">
         <v>89</v>
       </c>
       <c r="O11" s="10"/>
@@ -2324,361 +2468,361 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>25</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>50</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="21">
-        <v>5</v>
-      </c>
-      <c r="M12" s="20" t="s">
+      <c r="L12" s="20">
+        <v>5</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="22"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>25</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>50</v>
       </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>5</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>5</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="21">
-        <v>5</v>
-      </c>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="20">
+        <v>5</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>25</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>100</v>
       </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <v>5</v>
-      </c>
-      <c r="I14" s="28" t="s">
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>5</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="30">
-        <v>5</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="L14" s="29">
+        <v>5</v>
+      </c>
+      <c r="M14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="19">
+        <v>500</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>5</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="19">
+        <v>5</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="19">
+        <v>25</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="19">
         <v>110</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20">
-        <v>20</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="20">
-        <v>500</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>5</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>5</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="20">
-        <v>5</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="20">
-        <v>25</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="20">
-        <v>110</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20">
-        <v>5</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="20">
-        <v>5</v>
-      </c>
-      <c r="M17" s="20" t="s">
+      <c r="L17" s="19">
+        <v>5</v>
+      </c>
+      <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>25</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>500</v>
       </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
-        <v>5</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <v>32</v>
       </c>
-      <c r="L18" s="20">
-        <v>5</v>
-      </c>
-      <c r="M18" s="20" t="s">
+      <c r="L18" s="19">
+        <v>5</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>25</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>1000</v>
       </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>5</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>64</v>
       </c>
-      <c r="L19" s="20">
-        <v>5</v>
-      </c>
-      <c r="M19" s="20" t="s">
+      <c r="L19" s="19">
+        <v>5</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="22"/>
+      <c r="O19" s="21"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2702,132 +2846,133 @@
       <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="34" t="s">
         <v>73</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>112</v>
+      <c r="A24" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>10</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>100</v>
       </c>
-      <c r="G24" s="15">
-        <v>5</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16" t="s">
+      <c r="G24" s="14">
+        <v>5</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>8</v>
       </c>
-      <c r="L24" s="16">
-        <v>5</v>
-      </c>
-      <c r="M24" s="15" t="s">
+      <c r="L24" s="15">
+        <v>5</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>112</v>
+      <c r="A25" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>20</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>500</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>5</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>5</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="16">
-        <v>5</v>
-      </c>
-      <c r="M25" s="15" t="s">
+      <c r="L25" s="15">
+        <v>5</v>
+      </c>
+      <c r="M25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>112</v>
+      <c r="A26" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>20</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>500</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>5</v>
-      </c>
-      <c r="J26" s="16" t="s">
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>16</v>
       </c>
-      <c r="L26" s="16">
-        <v>5</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="L26" s="15">
+        <v>5</v>
+      </c>
+      <c r="M26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -2846,7 +2991,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,6 +2999,8 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
@@ -2862,57 +3009,82 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+    </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="46"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2948,600 +3120,625 @@
       <c r="L8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="37" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>180</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>5</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>16</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>20</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>100</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>5</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>16</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="44" t="s">
+      <c r="N10" s="17"/>
+      <c r="O10" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>200</v>
       </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>5</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>5</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>16</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>20</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>200</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>16</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>20</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>200</v>
       </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>5</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>5</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>500</v>
       </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>5</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>32</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="N14" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C16" s="27">
         <v>20</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F16" s="27">
         <v>1000</v>
       </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
-        <v>5</v>
-      </c>
-      <c r="I15" s="28" t="s">
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>5</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K16" s="27">
         <v>32</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="19">
+        <v>20</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="E17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="19">
+        <v>450</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>5</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C18" s="27">
         <v>20</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="20">
-        <v>450</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>5</v>
-      </c>
-      <c r="I16" s="20" t="s">
+      <c r="D18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="28">
-        <v>20</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="K18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <v>5</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N19" s="17"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="O14:R19"/>
     <mergeCell ref="O10:R12"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="O4:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3550,13 +3747,15 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3564,37 +3763,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3608,11 +3807,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="46"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3620,7 +3821,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3655,115 +3856,115 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="14">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="14">
+        <v>64</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="15">
-        <v>100</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="19">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="19">
+        <v>400</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <v>2</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="15">
-        <v>64</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="J9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="20">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="20">
-        <v>400</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>2</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="19">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="19">
+        <v>160</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="20">
-        <v>20</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="J10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="E10" s="20">
-        <v>160</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>5</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3796,82 +3997,83 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="14">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <v>460</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>5</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>123</v>
+      <c r="K16" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="155">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -319,9 +319,6 @@
     <t>['112.48', '119.44', '117.92']</t>
   </si>
   <si>
-    <t>* relative comparison against other players from bachelor thesis (first result is our model)</t>
-  </si>
-  <si>
     <t>2857.33</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>0.75, 0.2</t>
   </si>
   <si>
-    <t>TODO**</t>
-  </si>
-  <si>
     <t>131.57</t>
   </si>
   <si>
@@ -388,9 +382,6 @@
     <t>256, 256</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>inputs scale</t>
   </si>
   <si>
@@ -443,6 +434,54 @@
   </si>
   <si>
     <t>Random: 6.016</t>
+  </si>
+  <si>
+    <t>Individual length = dimension of centroid to optimize</t>
+  </si>
+  <si>
+    <t>4378.98</t>
+  </si>
+  <si>
+    <t>CMA-ES+ESN</t>
+  </si>
+  <si>
+    <t>3912.66</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4358.49</t>
+  </si>
+  <si>
+    <t>84.39% (211/250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.80% (167/250)</t>
+  </si>
+  <si>
+    <t>Was expecting much more….</t>
+  </si>
+  <si>
+    <t>* relative comparison against other players from bachelor thesis (first result is our model); average of 250 games</t>
+  </si>
+  <si>
+    <t>128.16 (112.45, 116.72)</t>
+  </si>
+  <si>
+    <t>127.58 (114.99, 115.94)</t>
+  </si>
+  <si>
+    <t>128.86 (116.828, 112.83)</t>
+  </si>
+  <si>
+    <t>Due to many game phases (12) within the Alhambra game, the mlp - individual to evolve is too big for evolution strategy</t>
+  </si>
+  <si>
+    <t>uniform, 0.01, 0.1</t>
+  </si>
+  <si>
+    <t>3478.38</t>
   </si>
 </sst>
 </file>
@@ -519,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -784,6 +823,21 @@
       </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -891,9 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,6 +1000,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,61 +1334,61 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+        <v>127</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,10 +1400,10 @@
       <c r="D7" s="11">
         <v>2048</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="46"/>
+      <c r="E7" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="45"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1388,19 +1442,19 @@
       <c r="J8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="33" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="38" t="s">
-        <v>124</v>
+      <c r="M8" s="37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="13">
         <v>50</v>
@@ -1435,13 +1489,13 @@
       <c r="L9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="39" t="s">
-        <v>125</v>
+      <c r="M9" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="13">
         <v>50</v>
@@ -1476,13 +1530,13 @@
       <c r="L10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="39" t="s">
-        <v>125</v>
+      <c r="M10" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="13">
         <v>50</v>
@@ -1517,13 +1571,13 @@
       <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="39" t="s">
-        <v>125</v>
+      <c r="M11" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="13">
         <v>50</v>
@@ -1558,13 +1612,13 @@
       <c r="L12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>125</v>
+      <c r="M12" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="13">
         <v>50</v>
@@ -1599,8 +1653,8 @@
       <c r="L13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>125</v>
+      <c r="M13" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1608,7 +1662,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="13">
         <v>50</v>
@@ -1643,8 +1697,8 @@
       <c r="L14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>125</v>
+      <c r="M14" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -1652,7 +1706,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="18">
         <v>50</v>
@@ -1687,8 +1741,8 @@
       <c r="L15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="39" t="s">
-        <v>125</v>
+      <c r="M15" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1696,7 +1750,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="18">
         <v>50</v>
@@ -1731,8 +1785,8 @@
       <c r="L16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="39" t="s">
-        <v>125</v>
+      <c r="M16" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -1740,7 +1794,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="18">
         <v>50</v>
@@ -1775,8 +1829,8 @@
       <c r="L17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="39" t="s">
-        <v>125</v>
+      <c r="M17" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1784,7 +1838,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="18">
         <v>25</v>
@@ -1819,8 +1873,8 @@
       <c r="L18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>125</v>
+      <c r="M18" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -1828,7 +1882,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="18">
         <v>50</v>
@@ -1863,8 +1917,8 @@
       <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>125</v>
+      <c r="M19" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -1872,7 +1926,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="18">
         <v>50</v>
@@ -1907,8 +1961,8 @@
       <c r="L20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>125</v>
+      <c r="M20" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -1916,7 +1970,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="18">
         <v>50</v>
@@ -1951,8 +2005,8 @@
       <c r="L21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>125</v>
+      <c r="M21" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -1960,7 +2014,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="26">
         <v>50</v>
@@ -1992,11 +2046,11 @@
       <c r="K22" s="29">
         <v>10</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>125</v>
+      <c r="M22" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2004,13 +2058,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="27">
         <v>50</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>12</v>
@@ -2031,29 +2085,29 @@
         <v>9</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K23" s="29">
         <v>10</v>
       </c>
-      <c r="L23" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>127</v>
+      <c r="L23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="27">
         <v>50</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>12</v>
@@ -2074,19 +2128,60 @@
         <v>9</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K24" s="29">
         <v>10</v>
       </c>
-      <c r="L24" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>127</v>
+      <c r="L24" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="19">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="19">
+        <v>32</v>
+      </c>
+      <c r="K25" s="20">
+        <v>10</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,10 +2215,13 @@
       <c r="L29" s="24" t="s">
         <v>75</v>
       </c>
+      <c r="M29" s="37" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="18">
         <v>25</v>
@@ -2150,15 +2248,15 @@
         <v>10</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="18">
         <v>25</v>
@@ -2185,10 +2283,115 @@
         <v>10</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="27">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>5</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="27">
+        <v>16</v>
+      </c>
+      <c r="K32" s="27">
+        <v>10</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="18">
+        <v>50</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>5</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="18">
+        <v>10</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="18">
+        <v>50</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="18">
+        <v>10</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2479,7 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
@@ -2286,63 +2489,87 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2357,158 +2584,73 @@
       <c r="L8" s="8"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="30" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="14">
-        <v>50</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>5</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="14">
-        <v>16</v>
-      </c>
-      <c r="L11" s="15">
-        <v>5</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="F11" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="19">
-        <v>25</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="19">
-        <v>50</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>5</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="20">
-        <v>5</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>90</v>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="10"/>
@@ -2516,116 +2658,116 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>25</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14">
         <v>50</v>
       </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>5</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>5</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="20">
-        <v>5</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>46</v>
+      <c r="J13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="14">
+        <v>16</v>
+      </c>
+      <c r="L13" s="15">
+        <v>5</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="19">
         <v>25</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="27">
-        <v>100</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>5</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="29">
-        <v>5</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>91</v>
+      <c r="D14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="19">
+        <v>50</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>5</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="20">
+        <v>5</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>109</v>
+      <c r="A15" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F15" s="19">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
@@ -2640,50 +2782,80 @@
         <v>9</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="19">
+        <v>38</v>
+      </c>
+      <c r="L15" s="20">
         <v>5</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="A16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="27">
+        <v>25</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="27">
+        <v>100</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>5</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="29">
+        <v>5</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C17" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F17" s="19">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -2698,45 +2870,45 @@
         <v>9</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="L17" s="19">
         <v>5</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>109</v>
+      <c r="A18" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C18" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F18" s="19">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="G18" s="19">
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>8</v>
@@ -2744,245 +2916,333 @@
       <c r="J18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="19">
-        <v>32</v>
+      <c r="K18" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="L18" s="19">
         <v>5</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O18" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="19">
-        <v>25</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="19">
-        <v>64</v>
-      </c>
-      <c r="L19" s="19">
-        <v>5</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="O19" s="21"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N20" s="21"/>
+      <c r="A20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="19">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19">
+        <v>110</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="19">
+        <v>5</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="O20" s="21"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N21" s="17"/>
+      <c r="A21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="19">
+        <v>25</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="19">
+        <v>500</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>5</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="19">
+        <v>32</v>
+      </c>
+      <c r="L21" s="19">
+        <v>5</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="19">
+        <v>25</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>5</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="19">
+        <v>64</v>
+      </c>
+      <c r="L22" s="19">
+        <v>5</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="H25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L25" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N25" s="34" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="14">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="14">
-        <v>100</v>
-      </c>
-      <c r="G24" s="14">
-        <v>5</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="15">
-        <v>8</v>
-      </c>
-      <c r="L24" s="15">
-        <v>5</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="14">
-        <v>20</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="14">
-        <v>500</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>5</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="15">
-        <v>5</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="14">
+        <v>100</v>
+      </c>
+      <c r="G26" s="14">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="15">
+        <v>8</v>
+      </c>
+      <c r="L26" s="15">
+        <v>5</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="14">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="14">
         <v>500</v>
       </c>
-      <c r="G26" s="14">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>5</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="15">
+        <v>5</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="14">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="14">
+        <v>500</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="15">
         <v>16</v>
       </c>
-      <c r="L26" s="15">
-        <v>5</v>
-      </c>
-      <c r="M26" s="14" t="s">
+      <c r="L28" s="15">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N28" s="14" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F9:G9"/>
+  <mergeCells count="8">
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="K25" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2991,7 +3251,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,57 +3269,57 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="O4" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3070,21 +3330,21 @@
       <c r="E7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="46"/>
+      <c r="F7" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="45"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3120,13 +3380,13 @@
       <c r="L8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>52</v>
@@ -3167,7 +3427,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>52</v>
@@ -3206,16 +3466,16 @@
         <v>61</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="O10" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>52</v>
@@ -3254,14 +3514,14 @@
         <v>64</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>52</v>
@@ -3300,14 +3560,14 @@
         <v>66</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>52</v>
@@ -3352,7 +3612,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>52</v>
@@ -3390,39 +3650,39 @@
       <c r="M14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="N14" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>52</v>
@@ -3455,20 +3715,20 @@
         <v>32</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>52</v>
@@ -3477,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>12</v>
@@ -3498,23 +3758,23 @@
         <v>9</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>52</v>
@@ -3523,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>37</v>
@@ -3547,23 +3807,23 @@
         <v>44</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N19" s="17"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -3604,7 +3864,9 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3623,7 +3885,9 @@
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3746,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,37 +4027,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3810,10 +4074,10 @@
       <c r="D6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="46"/>
+      <c r="E6" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3857,16 +4121,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="14">
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E8" s="14">
         <v>100</v>
@@ -3887,22 +4151,22 @@
         <v>64</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="19">
         <v>10</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="19">
         <v>400</v>
@@ -3923,22 +4187,22 @@
         <v>44</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="19">
         <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="19">
         <v>160</v>
@@ -3956,10 +4220,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3998,7 +4262,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14">
         <v>20</v>
@@ -4026,7 +4290,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="161">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -482,6 +482,24 @@
   </si>
   <si>
     <t>3478.38</t>
+  </si>
+  <si>
+    <t>ens:256, ro:32</t>
+  </si>
+  <si>
+    <t>127.37</t>
+  </si>
+  <si>
+    <t>tourn3</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>15.60% (39/250)</t>
+  </si>
+  <si>
+    <t>120.77 (116.016, 117.964)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -746,21 +764,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -921,9 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,10 +936,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,7 +951,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,8 +973,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,9 +1006,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,61 +1337,61 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1400,10 +1403,10 @@
       <c r="D7" s="11">
         <v>2048</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1442,13 +1445,13 @@
       <c r="J8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1489,7 +1492,7 @@
       <c r="L9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1530,7 +1533,7 @@
       <c r="L10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1571,7 +1574,7 @@
       <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1612,7 +1615,7 @@
       <c r="L12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1653,7 +1656,7 @@
       <c r="L13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N13" s="10"/>
@@ -1697,7 +1700,7 @@
       <c r="L14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N14" s="10"/>
@@ -1741,7 +1744,7 @@
       <c r="L15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N15" s="10"/>
@@ -1785,7 +1788,7 @@
       <c r="L16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="10"/>
@@ -1829,7 +1832,7 @@
       <c r="L17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="10"/>
@@ -1873,7 +1876,7 @@
       <c r="L18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N18" s="10"/>
@@ -1917,7 +1920,7 @@
       <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N19" s="10"/>
@@ -1961,7 +1964,7 @@
       <c r="L20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N20" s="10"/>
@@ -2005,7 +2008,7 @@
       <c r="L21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N21" s="10"/>
@@ -2013,43 +2016,43 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>50</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>1000</v>
       </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>5</v>
-      </c>
-      <c r="H22" s="27" t="s">
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>5</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="29" t="s">
+      <c r="I22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>10</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="37" t="s">
         <v>122</v>
       </c>
       <c r="N22" s="10"/>
@@ -2057,86 +2060,86 @@
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>50</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>750</v>
       </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>5</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>5</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>10</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="37" t="s">
         <v>124</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>50</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>1500</v>
       </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>5</v>
-      </c>
-      <c r="H24" s="27" t="s">
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>5</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="27" t="s">
+      <c r="I24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>10</v>
       </c>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="37" t="s">
         <v>124</v>
       </c>
       <c r="N24" s="10"/>
@@ -2176,10 +2179,10 @@
       <c r="K25" s="20">
         <v>10</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="37" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2209,13 +2212,13 @@
       <c r="J29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="32" t="s">
         <v>73</v>
       </c>
       <c r="L29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="36" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2250,7 +2253,7 @@
       <c r="L30" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="M30" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2285,42 +2288,42 @@
       <c r="L31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="38" t="s">
+      <c r="M31" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>25</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>1000</v>
       </c>
-      <c r="F32" s="27">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27">
-        <v>5</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="27">
+      <c r="F32" s="26">
+        <v>0</v>
+      </c>
+      <c r="G32" s="26">
+        <v>5</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="26">
         <v>16</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="28">
         <v>10</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M32" s="37" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2349,17 +2352,17 @@
       <c r="J33" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="43">
         <v>10</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M33" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>141</v>
       </c>
@@ -2384,13 +2387,13 @@
       <c r="J34" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="43">
         <v>10</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="38" t="s">
+      <c r="M34" s="37" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2466,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,85 +2492,85 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2594,13 +2597,13 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2610,10 +2613,10 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2643,13 +2646,13 @@
       <c r="K12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="32" t="s">
         <v>73</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="33" t="s">
         <v>85</v>
       </c>
       <c r="O12" s="21"/>
@@ -2795,46 +2798,46 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>25</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>100</v>
       </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>5</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="27" t="s">
+      <c r="J16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="29">
-        <v>5</v>
-      </c>
-      <c r="M16" s="27" t="s">
+      <c r="L16" s="28">
+        <v>5</v>
+      </c>
+      <c r="M16" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3076,83 +3079,86 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="19">
+        <v>25</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="19">
+        <v>500</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>5</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="19">
+        <v>5</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M26" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N26" s="33" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="14">
-        <v>10</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="14">
-        <v>100</v>
-      </c>
-      <c r="G26" s="14">
-        <v>5</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="15">
-        <v>8</v>
-      </c>
-      <c r="L26" s="15">
-        <v>5</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3163,34 +3169,34 @@
         <v>49</v>
       </c>
       <c r="C27" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F27" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G27" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>88</v>
+      <c r="K27" s="15">
+        <v>8</v>
       </c>
       <c r="L27" s="15">
         <v>5</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3218,16 +3224,54 @@
       <c r="J28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="15">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="14">
+        <v>500</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="15">
         <v>16</v>
       </c>
-      <c r="L28" s="15">
-        <v>5</v>
-      </c>
-      <c r="M28" s="14" t="s">
+      <c r="L29" s="15">
+        <v>5</v>
+      </c>
+      <c r="M29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N29" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3251,7 +3295,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,6 +3305,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
@@ -3269,57 +3314,77 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="50" t="s">
+      <c r="A4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="O4" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="A5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3327,24 +3392,24 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3380,7 +3445,7 @@
       <c r="L8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="35" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3466,12 +3531,12 @@
         <v>61</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3514,10 +3579,10 @@
         <v>64</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3560,10 +3625,10 @@
         <v>66</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3650,81 +3715,81 @@
       <c r="M14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>20</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>1000</v>
       </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>5</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="27">
+      <c r="J16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="26">
         <v>32</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="26" t="s">
         <v>149</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -3767,63 +3832,102 @@
         <v>150</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>20</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>1000</v>
       </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>5</v>
-      </c>
-      <c r="I18" s="27" t="s">
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>5</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="27" t="s">
+      <c r="J18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>151</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -3992,7 +4096,7 @@
       <c r="M28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="O14:R19"/>
     <mergeCell ref="O10:R12"/>
     <mergeCell ref="B1:F1"/>
@@ -4000,6 +4104,8 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="O4:R7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4010,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -4027,37 +4133,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4071,13 +4177,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4085,7 +4191,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4228,7 +4334,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="164">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -500,6 +500,15 @@
   </si>
   <si>
     <t>120.77 (116.016, 117.964)</t>
+  </si>
+  <si>
+    <t>ens:512, ro:128</t>
+  </si>
+  <si>
+    <t>125.30</t>
+  </si>
+  <si>
+    <t>119 (117.932, 120.100)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3294,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,7 +3314,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
@@ -3930,19 +3939,45 @@
       <c r="R19" s="52"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="A20" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -3968,9 +4003,6 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3989,9 +4021,6 @@
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4009,7 +4038,9 @@
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4027,7 +4058,9 @@
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="168">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>119 (117.932, 120.100)</t>
+  </si>
+  <si>
+    <t>esn: 256, ro:32</t>
+  </si>
+  <si>
+    <t>1603.96</t>
+  </si>
+  <si>
+    <t>126.83</t>
+  </si>
+  <si>
+    <t>123.164 (117.384, 117.688)</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2493,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="A26" sqref="A26:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,12 +3316,12 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
@@ -3983,7 +3995,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4002,45 +4014,85 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="A23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="14">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="14">
+        <v>850</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4058,9 +4110,6 @@
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -4096,7 +4145,9 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -4114,7 +4165,9 @@
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -4150,7 +4203,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,6 +4212,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4203,262 +4257,298 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="29" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B11" s="14">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E11" s="14">
         <v>100</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="14">
         <v>64</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E12" s="19">
         <v>400</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B13" s="19">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E13" s="19">
         <v>160</v>
       </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>5</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>5</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="I13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="19">
+        <v>15</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="19">
+        <v>520</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B19" s="14">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
         <v>460</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="I19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4472,11 +4562,13 @@
       <c r="L20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="170">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>123.164 (117.384, 117.688)</t>
+  </si>
+  <si>
+    <t>esn: 128, ro:16</t>
+  </si>
+  <si>
+    <t>5851.70</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2499,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:N27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -4203,7 +4209,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4479,6 +4485,41 @@
         <v>165</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="19">
+        <v>15</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="19">
+        <v>470</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="189">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Random: 1077.92</t>
   </si>
   <si>
-    <t>Random: 0.04511</t>
-  </si>
-  <si>
     <t>Random: 82.66**</t>
   </si>
   <si>
@@ -527,6 +524,66 @@
   </si>
   <si>
     <t>5851.70</t>
+  </si>
+  <si>
+    <t>DE+MLP</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Differential Evolution</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>2845.13</t>
+  </si>
+  <si>
+    <t>evaluation*</t>
+  </si>
+  <si>
+    <t>* We tried two types of evaluating individuals, partial = evaluating fitness only in changed invididuals in population; full = evaluating all individuals in population</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>4230.35</t>
+  </si>
+  <si>
+    <t>137.37</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>123.948 (116.744, 117.088)</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>Random: 0.04511 (Gomba)</t>
+  </si>
+  <si>
+    <t>65.59% (164/250)</t>
+  </si>
+  <si>
+    <t>67.60% (169/250)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -875,11 +932,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1104,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1033,6 +1149,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,6 +1479,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
@@ -1364,204 +1490,134 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E9" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K10" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M10" s="36" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="13">
-        <v>50</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14">
-        <v>200</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="15">
-        <v>16</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="13">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14">
-        <v>200</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="15">
-        <v>64</v>
-      </c>
-      <c r="K10" s="20">
-        <v>10</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1575,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="14">
         <v>200</v>
@@ -1595,11 +1651,11 @@
       <c r="J11" s="15">
         <v>16</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="15">
         <v>10</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>122</v>
@@ -1616,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" s="14">
         <v>200</v>
@@ -1634,13 +1690,13 @@
         <v>9</v>
       </c>
       <c r="J12" s="15">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="K12" s="20">
         <v>10</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>122</v>
@@ -1657,16 +1713,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="14">
         <v>200</v>
       </c>
       <c r="F13" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>8</v>
@@ -1681,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>122</v>
@@ -1701,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14" s="14">
         <v>200</v>
@@ -1713,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>9</v>
@@ -1725,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>122</v>
@@ -1738,38 +1794,38 @@
       <c r="A15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="13">
         <v>50</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="14">
         <v>200</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>5</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="F15" s="14">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="I15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="15">
         <v>16</v>
       </c>
       <c r="K15" s="20">
         <v>10</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>122</v>
@@ -1782,38 +1838,38 @@
       <c r="A16" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="14">
         <v>200</v>
       </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15">
         <v>16</v>
       </c>
       <c r="K16" s="20">
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>122</v>
@@ -1836,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="19">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F17" s="19">
         <v>0</v>
@@ -1857,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>122</v>
@@ -1871,10 +1927,10 @@
         <v>108</v>
       </c>
       <c r="B18" s="18">
-        <v>25</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
@@ -1891,17 +1947,17 @@
       <c r="H18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>32</v>
+      <c r="I18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="20">
+        <v>16</v>
       </c>
       <c r="K18" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>122</v>
@@ -1918,15 +1974,15 @@
         <v>50</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="19">
-        <v>140</v>
-      </c>
-      <c r="F19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="19">
         <v>0</v>
       </c>
       <c r="G19" s="19">
@@ -1935,17 +1991,17 @@
       <c r="H19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>38</v>
+      <c r="I19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="20">
+        <v>16</v>
       </c>
       <c r="K19" s="20">
         <v>10</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>122</v>
@@ -1959,16 +2015,16 @@
         <v>108</v>
       </c>
       <c r="B20" s="18">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E20" s="19">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="F20" s="19">
         <v>0</v>
@@ -1983,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K20" s="20">
         <v>5</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>122</v>
@@ -2006,15 +2062,15 @@
         <v>50</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="19">
+        <v>140</v>
+      </c>
+      <c r="F21" s="18">
         <v>0</v>
       </c>
       <c r="G21" s="19">
@@ -2023,17 +2079,17 @@
       <c r="H21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="20" t="s">
+      <c r="I21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K21" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>122</v>
@@ -2043,41 +2099,41 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="18">
         <v>50</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="26">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>5</v>
-      </c>
-      <c r="H22" s="26" t="s">
+      <c r="C22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="19">
+        <v>320</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="28">
-        <v>10</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>76</v>
+      <c r="I22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="20">
+        <v>5</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>122</v>
@@ -2087,63 +2143,63 @@
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="18">
         <v>50</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="26">
-        <v>750</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>5</v>
-      </c>
-      <c r="H23" s="26" t="s">
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>5</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="28">
-        <v>10</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>123</v>
+      <c r="I23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="20">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="26">
+        <v>108</v>
+      </c>
+      <c r="B24" s="25">
         <v>50</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="E24" s="26">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="26">
         <v>0</v>
@@ -2157,274 +2213,500 @@
       <c r="I24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>130</v>
+      <c r="J24" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="K24" s="28">
         <v>10</v>
       </c>
-      <c r="L24" s="39" t="s">
-        <v>131</v>
+      <c r="L24" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="26">
         <v>50</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
-        <v>5</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="26">
+        <v>750</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>5</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="19">
-        <v>32</v>
-      </c>
-      <c r="K25" s="20">
+      <c r="I25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="28">
         <v>10</v>
       </c>
-      <c r="L25" s="42" t="s">
-        <v>154</v>
+      <c r="L25" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="26">
+        <v>50</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="28">
+        <v>10</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="19">
+        <v>50</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="19">
+        <v>32</v>
+      </c>
+      <c r="K27" s="20">
+        <v>10</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K31" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L31" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M31" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B32" s="18">
         <v>25</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E32" s="19">
         <v>500</v>
       </c>
-      <c r="F30" s="19">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>5</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>5</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="15">
         <v>64</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K32" s="20">
         <v>10</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L32" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M32" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B33" s="18">
         <v>25</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E33" s="19">
         <v>200</v>
       </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>5</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="15" t="s">
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>5</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K33" s="20">
         <v>10</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L33" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M33" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B34" s="26">
         <v>25</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E34" s="26">
         <v>1000</v>
       </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>5</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="26">
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
+      <c r="G34" s="26">
+        <v>5</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="26">
         <v>16</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K34" s="28">
         <v>10</v>
       </c>
-      <c r="L32" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="18">
-        <v>50</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1250</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>5</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K33" s="43">
-        <v>10</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="18">
-        <v>50</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1250</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18">
-        <v>5</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K34" s="43">
-        <v>10</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>144</v>
+      <c r="L34" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="M34" s="37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="18">
+        <v>50</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <v>5</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="43">
+        <v>10</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="18">
+        <v>50</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>5</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="43">
+        <v>10</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="14">
+        <v>50</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1020</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>5</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="14">
+        <v>10</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="14">
+        <v>50</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>5</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="14">
+        <v>10</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2436,7 +2718,7 @@
       <c r="I44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -2481,13 +2763,15 @@
       <c r="M111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="O39:R42"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2496,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,93 +2803,97 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2627,12 +2915,12 @@
       <c r="E11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2909,7 +3197,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="10"/>
@@ -2956,10 +3244,10 @@
         <v>39</v>
       </c>
       <c r="N18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>147</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -3131,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>9</v>
@@ -3143,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="M23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3302,9 +3590,132 @@
         <v>96</v>
       </c>
     </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="14">
+        <v>20</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="14">
+        <v>510</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>5</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="15">
+        <v>5</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14">
+        <v>20</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="14">
+        <v>530</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>5</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="15">
+        <v>5</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -3312,6 +3723,8 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3319,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,88 +3743,90 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="O4" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="O4" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3422,18 +3837,18 @@
       <c r="E7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="46"/>
+      <c r="F7" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -3558,12 +3973,12 @@
         <v>61</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="O10" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3606,10 +4021,10 @@
         <v>64</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3652,10 +4067,10 @@
         <v>66</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3743,14 +4158,14 @@
         <v>69</v>
       </c>
       <c r="N14" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -3767,10 +4182,10 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -3810,13 +4225,13 @@
         <v>102</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -3856,13 +4271,13 @@
         <v>115</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -3902,13 +4317,13 @@
         <v>112</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -3942,19 +4357,19 @@
         <v>9</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="M19" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -3988,13 +4403,13 @@
         <v>9</v>
       </c>
       <c r="K20" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="M20" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
@@ -4062,7 +4477,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>52</v>
@@ -4086,13 +4501,13 @@
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
@@ -4132,7 +4547,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4150,42 +4565,102 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+      <c r="A28" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="14">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="14">
+        <v>250</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="48">
+        <v>5</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4208,8 +4683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,37 +4701,37 @@
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4267,25 +4742,25 @@
       <c r="A4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4299,10 +4774,10 @@
       <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="46"/>
+      <c r="E9" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="52"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4479,10 +4954,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,10 +4989,10 @@
         <v>9</v>
       </c>
       <c r="J15" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="152">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -49,54 +49,21 @@
     <t>relu</t>
   </si>
   <si>
-    <t>0.01, 0.5</t>
-  </si>
-  <si>
     <t>xover</t>
   </si>
   <si>
     <t>uniform, 0.1, 0.1</t>
   </si>
   <si>
-    <t>3057.47</t>
-  </si>
-  <si>
-    <t>2973.74</t>
-  </si>
-  <si>
-    <t>2989.58</t>
-  </si>
-  <si>
-    <t>uniform, 0.3, 0.1</t>
-  </si>
-  <si>
-    <t>3018.47</t>
-  </si>
-  <si>
     <t>uniform, 0.05, 0.1</t>
   </si>
   <si>
-    <t>3034.74</t>
-  </si>
-  <si>
-    <t>3091.59</t>
-  </si>
-  <si>
     <t>selbest</t>
   </si>
   <si>
     <t>0.2, 0.5</t>
   </si>
   <si>
-    <t>3125.42</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>2980.13</t>
-  </si>
-  <si>
     <t>MARIO</t>
   </si>
   <si>
@@ -106,9 +73,6 @@
     <t>TORCS</t>
   </si>
   <si>
-    <t>3195.75</t>
-  </si>
-  <si>
     <t>120.44</t>
   </si>
   <si>
@@ -118,9 +82,6 @@
     <t>4x64</t>
   </si>
   <si>
-    <t>2788.45</t>
-  </si>
-  <si>
     <t>0.92</t>
   </si>
   <si>
@@ -139,12 +100,6 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>0.75, 0.5</t>
-  </si>
-  <si>
-    <t>3115.12</t>
-  </si>
-  <si>
     <t>0.5, 0.1</t>
   </si>
   <si>
@@ -160,9 +115,6 @@
     <t>82.39% (206/250)</t>
   </si>
   <si>
-    <t>2915.33</t>
-  </si>
-  <si>
     <t>CMA-ES</t>
   </si>
   <si>
@@ -178,12 +130,6 @@
     <t>3 players</t>
   </si>
   <si>
-    <t>uniform 0.05, 0.1</t>
-  </si>
-  <si>
-    <t>2790.05</t>
-  </si>
-  <si>
     <t>0.5, 0.2</t>
   </si>
   <si>
@@ -229,9 +175,6 @@
     <t>['119.77', '113.98', '118.1']</t>
   </si>
   <si>
-    <t>0.75, 0.3</t>
-  </si>
-  <si>
     <t>solver type</t>
   </si>
   <si>
@@ -241,15 +184,9 @@
     <t>game batch</t>
   </si>
   <si>
-    <t>128, 64, 32</t>
-  </si>
-  <si>
     <t>Best AVG Fitness</t>
   </si>
   <si>
-    <t>3205.66</t>
-  </si>
-  <si>
     <t>sigma</t>
   </si>
   <si>
@@ -319,27 +256,9 @@
     <t>['112.48', '119.44', '117.92']</t>
   </si>
   <si>
-    <t>2857.33</t>
-  </si>
-  <si>
-    <t>2764.11</t>
-  </si>
-  <si>
     <t>133.78</t>
   </si>
   <si>
-    <t>0.5, 0.3</t>
-  </si>
-  <si>
-    <t>uniform 0.3, 0.1</t>
-  </si>
-  <si>
-    <t>5851.63</t>
-  </si>
-  <si>
-    <t>5848.18</t>
-  </si>
-  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -367,33 +286,12 @@
     <t>130.41</t>
   </si>
   <si>
-    <t>uniform 0.1, 0.1</t>
-  </si>
-  <si>
     <t>512, 512</t>
   </si>
   <si>
-    <t>5845.06</t>
-  </si>
-  <si>
-    <t>5846.07</t>
-  </si>
-  <si>
-    <t>256, 256</t>
-  </si>
-  <si>
     <t>inputs scale</t>
   </si>
   <si>
-    <t>div 2048</t>
-  </si>
-  <si>
-    <t>3314.26</t>
-  </si>
-  <si>
-    <t>log(x) or 0</t>
-  </si>
-  <si>
     <t>SEA+ESN</t>
   </si>
   <si>
@@ -412,15 +310,6 @@
     <t>esn:256, ro:32</t>
   </si>
   <si>
-    <t>4347.37</t>
-  </si>
-  <si>
-    <t>Random: 1077.92</t>
-  </si>
-  <si>
-    <t>Random: 82.66**</t>
-  </si>
-  <si>
     <t>** notice that the Alhambra "model" within the game is still the same (rule system has just random "weights")</t>
   </si>
   <si>
@@ -430,27 +319,12 @@
     <t>↑ There was a bug within the game phases, causing that individual weights were shared amongst phases (all phases used first 'n' values); leaving results here just for compare</t>
   </si>
   <si>
-    <t>Random: 6.016</t>
-  </si>
-  <si>
     <t>Individual length = dimension of centroid to optimize</t>
   </si>
   <si>
-    <t>4378.98</t>
-  </si>
-  <si>
     <t>CMA-ES+ESN</t>
   </si>
   <si>
-    <t>3912.66</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4358.49</t>
-  </si>
-  <si>
     <t>84.39% (211/250)</t>
   </si>
   <si>
@@ -475,12 +349,6 @@
     <t>Due to many game phases (12) within the Alhambra game, the mlp - individual to evolve is too big for evolution strategy</t>
   </si>
   <si>
-    <t>uniform, 0.01, 0.1</t>
-  </si>
-  <si>
-    <t>3478.38</t>
-  </si>
-  <si>
     <t>ens:256, ro:32</t>
   </si>
   <si>
@@ -511,21 +379,12 @@
     <t>esn: 256, ro:32</t>
   </si>
   <si>
-    <t>1603.96</t>
-  </si>
-  <si>
     <t>126.83</t>
   </si>
   <si>
     <t>123.164 (117.384, 117.688)</t>
   </si>
   <si>
-    <t>esn: 128, ro:16</t>
-  </si>
-  <si>
-    <t>5851.70</t>
-  </si>
-  <si>
     <t>DE+MLP</t>
   </si>
   <si>
@@ -544,24 +403,15 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>2845.13</t>
-  </si>
-  <si>
     <t>evaluation*</t>
   </si>
   <si>
     <t>* We tried two types of evaluating individuals, partial = evaluating fitness only in changed invididuals in population; full = evaluating all individuals in population</t>
   </si>
   <si>
-    <t>full</t>
-  </si>
-  <si>
     <t>partial</t>
   </si>
   <si>
-    <t>4230.35</t>
-  </si>
-  <si>
     <t>137.37</t>
   </si>
   <si>
@@ -577,13 +427,52 @@
     <t>0.91</t>
   </si>
   <si>
-    <t>Random: 0.04511 (Gomba)</t>
-  </si>
-  <si>
     <t>65.59% (164/250)</t>
   </si>
   <si>
     <t>67.60% (169/250)</t>
+  </si>
+  <si>
+    <t>Random: 1100.42</t>
+  </si>
+  <si>
+    <t>--GAME 2048 STATISTICS--</t>
+  </si>
+  <si>
+    <t>Model: random</t>
+  </si>
+  <si>
+    <t>Total games: 10000, Average score: 1100.828, Average moves: 118.7604</t>
+  </si>
+  <si>
+    <t>Reached tiles:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16:    23 =  0.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32:   648 =  6.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   64:  3762 = 37.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  128:  4739 = 47.39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  256:   826 =  8.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  512:     2 =  0.02%</t>
+  </si>
+  <si>
+    <t>Random: 80.47**</t>
+  </si>
+  <si>
+    <t>Random: 0.047 (Gomba)</t>
+  </si>
+  <si>
+    <t>Random: 0.01</t>
   </si>
 </sst>
 </file>
@@ -660,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -973,11 +862,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,6 +1079,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1138,6 +1104,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1150,14 +1119,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,80 +1469,80 @@
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1568,10 +1551,10 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="52"/>
+      <c r="E9" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="54"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1579,15 +1562,15 @@
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -1608,759 +1591,529 @@
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B11" s="13">
         <v>50</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14">
-        <v>200</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="15">
-        <v>16</v>
-      </c>
-      <c r="K11" s="15">
-        <v>10</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="37"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="72"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B12" s="13">
         <v>50</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14">
-        <v>200</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>5</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="15">
-        <v>64</v>
-      </c>
-      <c r="K12" s="20">
-        <v>10</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="37"/>
+      <c r="O12" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="72"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B13" s="13">
         <v>50</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="14">
-        <v>200</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="15">
-        <v>16</v>
-      </c>
-      <c r="K13" s="20">
-        <v>10</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="72"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B14" s="13">
         <v>50</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14">
-        <v>200</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="15">
-        <v>16</v>
-      </c>
-      <c r="K14" s="20">
-        <v>10</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="72"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B15" s="13">
         <v>50</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14">
-        <v>200</v>
-      </c>
-      <c r="F15" s="14">
-        <v>5</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="15">
-        <v>16</v>
-      </c>
-      <c r="K15" s="20">
-        <v>10</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="68"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="72"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14">
-        <v>200</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="15">
-        <v>16</v>
-      </c>
-      <c r="K16" s="20">
-        <v>10</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="72"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B17" s="18">
         <v>50</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="19">
-        <v>200</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>5</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="20">
-        <v>16</v>
-      </c>
-      <c r="K17" s="20">
-        <v>10</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="72"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B18" s="18">
         <v>50</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="19">
-        <v>200</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>5</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="20">
-        <v>16</v>
-      </c>
-      <c r="K18" s="20">
-        <v>10</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="72"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B19" s="18">
         <v>50</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="20">
-        <v>16</v>
-      </c>
-      <c r="K19" s="20">
-        <v>10</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="72"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B20" s="18">
         <v>25</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="19">
-        <v>200</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>5</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="20">
-        <v>5</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="72"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B21" s="18">
         <v>50</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="19">
-        <v>140</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>5</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="20">
-        <v>10</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="72"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B22" s="18">
         <v>50</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="19">
-        <v>320</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>5</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="20">
-        <v>5</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B23" s="18">
         <v>50</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>5</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="20">
-        <v>5</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B24" s="25">
         <v>50</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="26">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>5</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="28">
-        <v>10</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B25" s="26">
         <v>50</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="26">
-        <v>750</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>5</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="28">
-        <v>10</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B26" s="26">
         <v>50</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="26">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="28">
-        <v>10</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19">
         <v>50</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="19">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>5</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="19">
-        <v>32</v>
-      </c>
-      <c r="K27" s="20">
-        <v>10</v>
-      </c>
-      <c r="L27" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="37"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>3</v>
@@ -2375,206 +2128,121 @@
         <v>7</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B32" s="18">
         <v>25</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="19">
-        <v>500</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>5</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="15">
-        <v>64</v>
-      </c>
-      <c r="K32" s="20">
-        <v>10</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B33" s="18">
         <v>25</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="19">
-        <v>200</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>5</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="20">
-        <v>10</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>122</v>
-      </c>
+      <c r="C33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B34" s="26">
         <v>25</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="26">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="26">
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
-        <v>5</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="26">
-        <v>16</v>
-      </c>
-      <c r="K34" s="28">
-        <v>10</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>124</v>
-      </c>
+      <c r="C34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B35" s="18">
         <v>50</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1250</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>5</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="43">
-        <v>10</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>124</v>
-      </c>
+      <c r="C35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B36" s="18">
         <v>50</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="19">
-        <v>1250</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>5</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K36" s="43">
-        <v>10</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>124</v>
-      </c>
+      <c r="C36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>3</v>
@@ -2586,125 +2254,81 @@
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="I39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M39" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="O39" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
+        <v>90</v>
+      </c>
+      <c r="O39" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B40" s="14">
         <v>50</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1020</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
-        <v>5</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="14">
-        <v>10</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="5"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B41" s="14">
         <v>50</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14">
-        <v>5</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="14">
-        <v>10</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2783,7 +2407,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,99 +2425,99 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+        <v>123</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2913,14 +2537,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2929,16 +2553,16 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -2959,16 +2583,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="10"/>
@@ -2976,19 +2600,19 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14">
         <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="14">
         <v>50</v>
@@ -3012,10 +2636,10 @@
         <v>5</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="10"/>
@@ -3023,19 +2647,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C14" s="19">
         <v>25</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="19">
         <v>50</v>
@@ -3053,16 +2677,16 @@
         <v>9</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L14" s="20">
         <v>5</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="10"/>
@@ -3070,19 +2694,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19">
         <v>25</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F15" s="19">
         <v>50</v>
@@ -3100,33 +2724,33 @@
         <v>9</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L15" s="20">
         <v>5</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C16" s="26">
         <v>25</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F16" s="26">
         <v>100</v>
@@ -3138,39 +2762,39 @@
         <v>5</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L16" s="28">
         <v>5</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="19">
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="19">
         <v>500</v>
@@ -3188,16 +2812,16 @@
         <v>9</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L17" s="19">
         <v>5</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="10"/>
@@ -3205,19 +2829,19 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C18" s="19">
         <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="19">
         <v>640</v>
@@ -3235,19 +2859,19 @@
         <v>9</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="L18" s="19">
         <v>5</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -3259,19 +2883,19 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C20" s="19">
         <v>25</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F20" s="19">
         <v>110</v>
@@ -3289,16 +2913,16 @@
         <v>9</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L20" s="19">
         <v>5</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="10"/>
@@ -3306,19 +2930,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C21" s="19">
         <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F21" s="19">
         <v>500</v>
@@ -3342,28 +2966,28 @@
         <v>5</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C22" s="19">
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F22" s="19">
         <v>1000</v>
@@ -3375,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>9</v>
@@ -3387,27 +3011,27 @@
         <v>5</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C23" s="19">
         <v>25</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="19">
         <v>500</v>
@@ -3419,37 +3043,37 @@
         <v>5</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="L23" s="19">
         <v>5</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -3464,30 +3088,30 @@
         <v>7</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C27" s="14">
         <v>10</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F27" s="14">
         <v>100</v>
@@ -3508,24 +3132,24 @@
         <v>5</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C28" s="14">
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F28" s="14">
         <v>500</v>
@@ -3540,30 +3164,30 @@
         <v>9</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L28" s="15">
         <v>5</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C29" s="14">
         <v>20</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F29" s="14">
         <v>500</v>
@@ -3584,28 +3208,28 @@
         <v>5</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>172</v>
+        <v>126</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>125</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>3</v>
@@ -3620,33 +3244,33 @@
         <v>7</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C33" s="14">
         <v>20</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F33" s="14">
         <v>510</v>
@@ -3661,33 +3285,33 @@
         <v>9</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L33" s="15">
         <v>5</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C34" s="14">
         <v>20</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F34" s="14">
         <v>530</v>
@@ -3702,29 +3326,29 @@
         <v>9</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L34" s="15">
         <v>5</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3735,7 +3359,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,79 +3378,79 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="O4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="O4" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+        <v>93</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3835,33 +3459,33 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="54"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -3882,30 +3506,30 @@
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C9" s="14">
         <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="14">
         <v>180</v>
@@ -3926,27 +3550,27 @@
         <v>16</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C10" s="19">
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="19">
         <v>100</v>
@@ -3967,34 +3591,34 @@
         <v>16</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="O10" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C11" s="19">
         <v>20</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="19">
         <v>200</v>
@@ -4015,32 +3639,32 @@
         <v>16</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F12" s="19">
         <v>200</v>
@@ -4061,32 +3685,32 @@
         <v>16</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C13" s="19">
         <v>20</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13" s="19">
         <v>200</v>
@@ -4098,19 +3722,19 @@
         <v>5</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -4119,19 +3743,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C14" s="14">
         <v>20</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F14" s="14">
         <v>500</v>
@@ -4152,20 +3776,20 @@
         <v>32</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+        <v>98</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -4182,26 +3806,26 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C16" s="26">
         <v>20</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F16" s="26">
         <v>1000</v>
@@ -4222,32 +3846,32 @@
         <v>32</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19">
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="19">
         <v>450</v>
@@ -4265,35 +3889,35 @@
         <v>9</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26">
         <v>20</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F18" s="26">
         <v>1000</v>
@@ -4311,35 +3935,35 @@
         <v>9</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C19" s="19">
         <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="19">
         <v>1000</v>
@@ -4357,35 +3981,35 @@
         <v>9</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C20" s="19">
         <v>20</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="19">
         <v>1000</v>
@@ -4403,13 +4027,13 @@
         <v>9</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
@@ -4437,16 +4061,16 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="3" t="s">
@@ -4462,13 +4086,13 @@
         <v>7</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -4477,16 +4101,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C23" s="14">
         <v>20</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F23" s="14">
         <v>850</v>
@@ -4501,13 +4125,13 @@
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
@@ -4567,24 +4191,24 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="49" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4597,35 +4221,35 @@
         <v>7</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C28" s="14">
         <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="G28" s="14">
         <v>250</v>
@@ -4640,13 +4264,13 @@
         <v>9</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4654,12 +4278,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4683,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,39 +4323,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4740,27 +4364,27 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4772,12 +4396,12 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="52"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="54"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4787,13 +4411,13 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -4814,197 +4438,87 @@
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="14">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="14">
-        <v>100</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="14">
-        <v>64</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="19">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="19">
-        <v>400</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="19">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="19">
-        <v>160</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>5</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="19">
-        <v>15</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="19">
-        <v>520</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="19">
-        <v>15</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="19">
-        <v>470</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -5023,45 +4537,25 @@
         <v>7</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="14">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14">
-        <v>460</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>5</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="174">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -289,7 +289,7 @@
     <t>512, 512</t>
   </si>
   <si>
-    <t>inputs scale</t>
+    <t>256, 256</t>
   </si>
   <si>
     <t>SEA+ESN</t>
@@ -442,9 +442,6 @@
     <t>Model: random</t>
   </si>
   <si>
-    <t>Total games: 10000, Average score: 1100.828, Average moves: 118.7604</t>
-  </si>
-  <si>
     <t>Reached tiles:</t>
   </si>
   <si>
@@ -473,6 +470,75 @@
   </si>
   <si>
     <t>Random: 0.01</t>
+  </si>
+  <si>
+    <t>tournament 2</t>
+  </si>
+  <si>
+    <t>2750.63</t>
+  </si>
+  <si>
+    <t>Total games: 10000</t>
+  </si>
+  <si>
+    <t>Average score: 1100.828, Average moves: 118.7604</t>
+  </si>
+  <si>
+    <t>tournament 3</t>
+  </si>
+  <si>
+    <t>500, 500</t>
+  </si>
+  <si>
+    <t>3706.13</t>
+  </si>
+  <si>
+    <t>2967.44</t>
+  </si>
+  <si>
+    <t>0.55, 0.5</t>
+  </si>
+  <si>
+    <t>uniform, 0.01, 0.5</t>
+  </si>
+  <si>
+    <t>3420.26</t>
+  </si>
+  <si>
+    <t>300, 300, 300</t>
+  </si>
+  <si>
+    <t>2680.15</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>64.0% (160/250)</t>
+  </si>
+  <si>
+    <t>ESN+SEA</t>
+  </si>
+  <si>
+    <t>0.8, 0.2</t>
+  </si>
+  <si>
+    <t>14.49</t>
+  </si>
+  <si>
+    <t>Race config</t>
+  </si>
+  <si>
+    <t>1 lap, Alalborg, Score: distance_raced / lap_time</t>
+  </si>
+  <si>
+    <t>esn: 1024, ro:256</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.59% (44/250)</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,12 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1124,24 +1184,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1451,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,75 +1539,79 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+    </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>0</v>
@@ -1551,16 +1621,19 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1599,17 +1672,15 @@
       <c r="L10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="63" t="s">
+      <c r="N10" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="66"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
       <c r="U10" s="67"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1619,24 +1690,44 @@
       <c r="B11" s="13">
         <v>50</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="37"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="72"/>
+      <c r="C11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1650</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="15">
+        <v>10</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1645,26 +1736,46 @@
       <c r="B12" s="13">
         <v>50</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="37"/>
-      <c r="O12" s="68" t="s">
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14">
+        <v>830</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="20">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="72"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1673,25 +1784,46 @@
       <c r="B13" s="13">
         <v>50</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
+      <c r="C13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14">
+        <v>620</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="20">
+        <v>10</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1700,27 +1832,46 @@
       <c r="B14" s="13">
         <v>50</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="72"/>
+      <c r="C14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1270</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="20">
+        <v>10</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1729,25 +1880,44 @@
       <c r="B15" s="13">
         <v>50</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="72"/>
+      <c r="C15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14">
+        <v>380</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>5</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="20">
+        <v>10</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -1766,17 +1936,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="72"/>
+      <c r="N16" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1795,17 +1964,16 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="72"/>
+      <c r="N17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" s="65"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -1824,17 +1992,16 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="72"/>
+      <c r="N18" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -1853,17 +2020,16 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="72"/>
+      <c r="N19" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1882,17 +2048,16 @@
       <c r="J20" s="15"/>
       <c r="K20" s="20"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="72"/>
+      <c r="N20" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" s="65"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -1911,17 +2076,16 @@
       <c r="J21" s="15"/>
       <c r="K21" s="20"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="72"/>
+      <c r="N21" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="69"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -1940,17 +2104,16 @@
       <c r="J22" s="15"/>
       <c r="K22" s="20"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
+      <c r="N22" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" s="71"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -1969,15 +2132,14 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
@@ -1995,16 +2157,15 @@
       <c r="I24" s="26"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
+      <c r="L24" s="36"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
@@ -2022,16 +2183,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
+      <c r="L25" s="36"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="U25" s="67"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
@@ -2049,16 +2208,15 @@
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="L26" s="37"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
@@ -2076,34 +2234,33 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="37"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
+      <c r="L27" s="40"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2136,14 +2293,11 @@
       <c r="L31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -2160,7 +2314,6 @@
       <c r="J32" s="15"/>
       <c r="K32" s="20"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2177,7 +2330,6 @@
       <c r="J33" s="15"/>
       <c r="K33" s="20"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -2193,8 +2345,7 @@
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="28"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="37"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
@@ -2209,9 +2360,8 @@
       <c r="G35" s="18"/>
       <c r="I35" s="19"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="43"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -2226,9 +2376,8 @@
       <c r="G36" s="18"/>
       <c r="I36" s="19"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="37"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2247,7 +2396,7 @@
       <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="30" t="s">
@@ -2256,27 +2405,24 @@
       <c r="H39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="47" t="s">
+      <c r="J39" s="45" t="s">
         <v>53</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="44" t="s">
+      <c r="L39" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="O39" s="51" t="s">
+      <c r="O39" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2290,16 +2436,15 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="48"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="5"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2313,22 +2458,21 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="5"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2340,7 +2484,6 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="M44" s="17"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J46" s="8"/>
@@ -2404,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,97 +2570,97 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2539,12 +2682,12 @@
       <c r="E11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="54"/>
+      <c r="F11" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2877,104 +3020,62 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="19">
+        <v>430</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="19">
+        <v>5</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="O19" s="21"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="19">
-        <v>25</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="19">
-        <v>110</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>5</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="19">
-        <v>5</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="O20" s="21"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="19">
-        <v>25</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="19">
-        <v>500</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>5</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="19">
-        <v>32</v>
-      </c>
-      <c r="L21" s="19">
-        <v>5</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -2984,13 +3085,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F22" s="19">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G22" s="19">
         <v>0</v>
@@ -2999,27 +3100,27 @@
         <v>5</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="19">
-        <v>64</v>
+      <c r="K22" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="L22" s="19">
         <v>5</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>33</v>
@@ -3028,10 +3129,10 @@
         <v>25</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F23" s="19">
         <v>500</v>
@@ -3043,237 +3144,286 @@
         <v>5</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="19">
+        <v>32</v>
+      </c>
+      <c r="L23" s="19">
+        <v>5</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="19">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>5</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="19">
+        <v>64</v>
+      </c>
+      <c r="L24" s="19">
+        <v>5</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="19">
+        <v>25</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="19">
+        <v>500</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>5</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="19">
-        <v>5</v>
-      </c>
-      <c r="M23" s="19" t="s">
+      <c r="L25" s="19">
+        <v>5</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N25" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="19">
+        <v>25</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="19">
+        <v>220</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>5</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="19">
+        <v>5</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B30" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="H30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N30" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C31" s="14">
         <v>10</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F31" s="14">
         <v>100</v>
       </c>
-      <c r="G27" s="14">
-        <v>5</v>
-      </c>
-      <c r="H27" s="14">
+      <c r="G31" s="14">
+        <v>5</v>
+      </c>
+      <c r="H31" s="14">
         <v>0</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K31" s="15">
         <v>8</v>
       </c>
-      <c r="L27" s="15">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14" t="s">
+      <c r="L31" s="15">
+        <v>5</v>
+      </c>
+      <c r="M31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N31" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C32" s="14">
         <v>20</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F32" s="14">
         <v>500</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="14">
-        <v>5</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="H32" s="14">
+        <v>5</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="15">
-        <v>5</v>
-      </c>
-      <c r="M28" s="14" t="s">
+      <c r="L32" s="15">
+        <v>5</v>
+      </c>
+      <c r="M32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N32" s="14" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="14">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="14">
-        <v>500</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
-        <v>5</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="15">
-        <v>16</v>
-      </c>
-      <c r="L29" s="15">
-        <v>5</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C33" s="14">
         <v>20</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="14">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -3284,57 +3434,140 @@
       <c r="J33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="15">
+        <v>16</v>
+      </c>
+      <c r="L33" s="15">
+        <v>5</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="14">
+        <v>20</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="14">
+        <v>510</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>5</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="15">
-        <v>5</v>
-      </c>
-      <c r="M33" s="14" t="s">
+      <c r="L37" s="15">
+        <v>5</v>
+      </c>
+      <c r="M37" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N37" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C38" s="14">
         <v>20</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F38" s="14">
         <v>530</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H34" s="14">
-        <v>5</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="H38" s="14">
+        <v>5</v>
+      </c>
+      <c r="J38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K38" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="15">
-        <v>5</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="L38" s="15">
+        <v>5</v>
+      </c>
+      <c r="M38" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N38" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3380,77 +3613,77 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="O4" s="60" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="O4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3461,18 +3694,18 @@
       <c r="E7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="54"/>
+      <c r="F7" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -3597,12 +3830,12 @@
         <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3645,10 +3878,10 @@
         <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3691,10 +3924,10 @@
         <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3781,35 +4014,35 @@
       <c r="M14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -3852,10 +4085,10 @@
         <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -3898,10 +4131,10 @@
         <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -3944,10 +4177,10 @@
         <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -3990,10 +4223,10 @@
         <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4199,16 +4432,16 @@
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="47" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4248,7 +4481,7 @@
       <c r="E28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="46" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="14">
@@ -4257,7 +4490,7 @@
       <c r="H28" s="14">
         <v>0</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="46">
         <v>5</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -4269,7 +4502,7 @@
       <c r="L28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="46" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4308,7 +4541,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,45 +4550,47 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4366,25 +4601,25 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4398,10 +4633,10 @@
       <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="54"/>
+      <c r="E9" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="52"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4443,19 +4678,47 @@
       <c r="K10" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="L10" s="35" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>200</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -4468,7 +4731,8 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4481,7 +4745,8 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -4494,7 +4759,8 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -4507,7 +4773,8 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4581,5 +4848,6 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,6 @@
     <t>Race config</t>
   </si>
   <si>
-    <t>1 lap, Alalborg, Score: distance_raced / lap_time</t>
-  </si>
-  <si>
     <t>esn: 1024, ro:256</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 17.59% (44/250)</t>
+  </si>
+  <si>
+    <t>1 lap, Aalborg, Score: distance_raced / lap_time</t>
   </si>
 </sst>
 </file>
@@ -1145,40 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +1174,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,78 +1539,78 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1621,19 +1621,19 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1672,16 +1672,16 @@
       <c r="L10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1720,14 +1720,14 @@
       <c r="L11" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1766,16 +1766,16 @@
       <c r="L12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1814,16 +1814,16 @@
       <c r="L13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="N13" s="64" t="s">
+      <c r="N13" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1862,16 +1862,16 @@
       <c r="L14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="75" t="s">
+      <c r="N14" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1910,14 +1910,14 @@
       <c r="L15" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -1936,16 +1936,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="20"/>
       <c r="L16" s="16"/>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1964,16 +1964,16 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="16"/>
-      <c r="N17" s="64" t="s">
+      <c r="N17" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -1992,16 +1992,16 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="16"/>
-      <c r="N18" s="64" t="s">
+      <c r="N18" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -2020,16 +2020,16 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="16"/>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -2048,16 +2048,16 @@
       <c r="J20" s="15"/>
       <c r="K20" s="20"/>
       <c r="L20" s="16"/>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="O20" s="65"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -2076,16 +2076,16 @@
       <c r="J21" s="15"/>
       <c r="K21" s="20"/>
       <c r="L21" s="16"/>
-      <c r="N21" s="68" t="s">
+      <c r="N21" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -2104,16 +2104,16 @@
       <c r="J22" s="15"/>
       <c r="K22" s="20"/>
       <c r="L22" s="16"/>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="71"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -2132,14 +2132,14 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="16"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
@@ -2158,14 +2158,14 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="36"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
@@ -2184,13 +2184,13 @@
       <c r="J25" s="26"/>
       <c r="K25" s="28"/>
       <c r="L25" s="36"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="U25" s="67"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="U25" s="55"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
@@ -2209,14 +2209,14 @@
       <c r="J26" s="26"/>
       <c r="K26" s="28"/>
       <c r="L26" s="37"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
@@ -2235,32 +2235,32 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
       <c r="L27" s="40"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2293,11 +2293,11 @@
       <c r="L31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -2417,12 +2417,12 @@
       <c r="L39" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2441,10 +2441,10 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2463,16 +2463,16 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2549,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,97 +2570,97 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2682,12 +2682,12 @@
       <c r="E11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="52"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -3288,10 +3288,10 @@
         <v>5</v>
       </c>
       <c r="M26" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3613,77 +3613,77 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="O4" s="58" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="O4" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3694,18 +3694,18 @@
       <c r="E7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -3830,12 +3830,12 @@
         <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="60" t="s">
+      <c r="O10" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3878,10 +3878,10 @@
         <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3924,10 +3924,10 @@
         <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -4017,12 +4017,12 @@
       <c r="N14" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="57" t="s">
+      <c r="O14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
@@ -4039,10 +4039,10 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -4085,10 +4085,10 @@
         <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4131,10 +4131,10 @@
         <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -4177,10 +4177,10 @@
         <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -4223,10 +4223,10 @@
         <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4540,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,37 +4560,37 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4601,25 +4601,25 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4633,10 +4633,10 @@
       <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4711,13 +4711,13 @@
         <v>9</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>168</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="77"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4746,7 +4746,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -4760,7 +4760,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="77"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -4774,7 +4774,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="77"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="185">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -539,6 +539,39 @@
   </si>
   <si>
     <t>1 lap, Aalborg, Score: distance_raced / lap_time</t>
+  </si>
+  <si>
+    <t>0.25, 0.1</t>
+  </si>
+  <si>
+    <t>300, 600</t>
+  </si>
+  <si>
+    <t>3095.11</t>
+  </si>
+  <si>
+    <t>4786.75</t>
+  </si>
+  <si>
+    <t>16, 16</t>
+  </si>
+  <si>
+    <t>4433.78</t>
+  </si>
+  <si>
+    <t>5016.22</t>
+  </si>
+  <si>
+    <t>esn: 256, ro: 32</t>
+  </si>
+  <si>
+    <t>3965.32</t>
+  </si>
+  <si>
+    <t>esn: 1024, ro: 256</t>
+  </si>
+  <si>
+    <t>4195.82</t>
   </si>
 </sst>
 </file>
@@ -615,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -850,19 +883,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1003,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,15 +1095,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,18 +1121,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1136,41 +1144,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1178,13 +1186,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1207,6 +1215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1540,7 @@
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
@@ -1539,78 +1550,78 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1621,19 +1632,19 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1666,22 +1677,22 @@
       <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="30" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1720,14 +1731,14 @@
       <c r="L11" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1766,16 +1777,16 @@
       <c r="L12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1814,16 +1825,16 @@
       <c r="L13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1862,16 +1873,16 @@
       <c r="L14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1910,14 +1921,14 @@
       <c r="L15" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -1926,30 +1937,50 @@
       <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="16"/>
-      <c r="N16" s="52" t="s">
+      <c r="C16" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="14">
+        <v>800</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="20">
+        <v>10</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B17" s="18">
         <v>50</v>
@@ -1964,16 +1995,16 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="16"/>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -1992,16 +2023,16 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="16"/>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -2020,16 +2051,16 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="16"/>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -2048,16 +2079,16 @@
       <c r="J20" s="15"/>
       <c r="K20" s="20"/>
       <c r="L20" s="16"/>
-      <c r="N20" s="52" t="s">
+      <c r="N20" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -2076,16 +2107,16 @@
       <c r="J21" s="15"/>
       <c r="K21" s="20"/>
       <c r="L21" s="16"/>
-      <c r="N21" s="56" t="s">
+      <c r="N21" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -2104,16 +2135,16 @@
       <c r="J22" s="15"/>
       <c r="K22" s="20"/>
       <c r="L22" s="16"/>
-      <c r="N22" s="58" t="s">
+      <c r="N22" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -2132,135 +2163,143 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="16"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="25">
+      <c r="A24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="19">
         <v>50</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="36"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="C24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2260</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>5</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="20">
+        <v>10</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19">
         <v>50</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="36"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="U25" s="55"/>
+      <c r="C25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2260</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="20">
+        <v>10</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="U25" s="51"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="26">
-        <v>50</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="37"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="19">
-        <v>50</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="40"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2287,17 +2326,17 @@
       <c r="J31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="30" t="s">
         <v>54</v>
       </c>
       <c r="L31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -2306,14 +2345,30 @@
       <c r="B32" s="18">
         <v>25</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="16"/>
+      <c r="C32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>5</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="15">
+        <v>16</v>
+      </c>
+      <c r="K32" s="20">
+        <v>10</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2322,32 +2377,64 @@
       <c r="B33" s="18">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="16"/>
+      <c r="C33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>5</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="20">
+        <v>10</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="26">
-        <v>25</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="18">
+        <v>50</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="37">
+        <v>10</v>
+      </c>
+      <c r="L34" s="74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>101</v>
       </c>
@@ -2360,28 +2447,12 @@
       <c r="G35" s="18"/>
       <c r="I35" s="19"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="18">
-        <v>50</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="40"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2396,33 +2467,33 @@
       <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="66" t="s">
+      <c r="O39" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2436,15 +2507,15 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="46"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2458,21 +2529,21 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="46"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2570,97 +2641,97 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2679,15 +2750,15 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="69"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2695,10 +2766,10 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2728,13 +2799,13 @@
       <c r="K12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="31" t="s">
         <v>64</v>
       </c>
       <c r="O12" s="21"/>
@@ -2880,46 +2951,46 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>25</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>100</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>0</v>
       </c>
-      <c r="H16" s="26">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26" t="s">
+      <c r="H16" s="25">
+        <v>5</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="28">
-        <v>5</v>
-      </c>
-      <c r="M16" s="26" t="s">
+      <c r="L16" s="26">
+        <v>5</v>
+      </c>
+      <c r="M16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3299,7 +3370,7 @@
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3323,13 +3394,13 @@
       <c r="K30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="30" t="s">
         <v>54</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="31" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3452,16 +3523,16 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>125</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3479,13 +3550,13 @@
       <c r="K36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="30" t="s">
         <v>54</v>
       </c>
       <c r="M36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="31" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3613,77 +3684,77 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="O4" s="75" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="O4" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3691,24 +3762,24 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3744,7 +3815,7 @@
       <c r="L8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3830,12 +3901,12 @@
         <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="77" t="s">
+      <c r="O10" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3878,10 +3949,10 @@
         <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3924,10 +3995,10 @@
         <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -4014,81 +4085,81 @@
       <c r="M14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="74" t="s">
+      <c r="O14" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>20</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>1000</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>0</v>
       </c>
-      <c r="H16" s="26">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26" t="s">
+      <c r="H16" s="25">
+        <v>5</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <v>32</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4131,56 +4202,56 @@
         <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>20</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>1000</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>0</v>
       </c>
-      <c r="H18" s="26">
-        <v>5</v>
-      </c>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="25">
+        <v>5</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -4223,10 +4294,10 @@
         <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4293,7 +4364,7 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4324,7 +4395,7 @@
       <c r="L22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="33" t="s">
         <v>77</v>
       </c>
       <c r="N22" s="17"/>
@@ -4423,7 +4494,7 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4432,16 +4503,16 @@
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4459,7 +4530,7 @@
       <c r="L27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="33" t="s">
         <v>77</v>
       </c>
       <c r="O27" s="17"/>
@@ -4481,7 +4552,7 @@
       <c r="E28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="42" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="14">
@@ -4490,7 +4561,7 @@
       <c r="H28" s="14">
         <v>0</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="42">
         <v>5</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -4502,7 +4573,7 @@
       <c r="L28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="M28" s="42" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4540,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -4560,37 +4631,37 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4601,25 +4672,25 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4630,13 +4701,13 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4645,7 +4716,7 @@
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4678,7 +4749,7 @@
       <c r="K10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="33" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4732,7 +4803,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="65"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4746,7 +4817,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="65"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -4760,7 +4831,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="65"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -4774,11 +4845,11 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="65"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="3" t="s">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="185">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -1182,6 +1182,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1215,9 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,73 +1550,73 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S8" s="51"/>
@@ -1632,10 +1632,10 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1982,19 +1982,39 @@
       <c r="A17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>50</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="16"/>
+      <c r="C17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2260</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="20">
+        <v>10</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="N17" s="48" t="s">
         <v>142</v>
       </c>
@@ -2008,21 +2028,41 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="18">
+        <v>91</v>
+      </c>
+      <c r="B18" s="19">
         <v>50</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="16"/>
+      <c r="C18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2260</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="20">
+        <v>10</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="N18" s="48" t="s">
         <v>143</v>
       </c>
@@ -2035,22 +2075,6 @@
       <c r="U18" s="51"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="18">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="16"/>
       <c r="N19" s="48" t="s">
         <v>144</v>
       </c>
@@ -2062,23 +2086,7 @@
       <c r="T19" s="51"/>
       <c r="U19" s="51"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="18">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="16"/>
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20" s="48" t="s">
         <v>145</v>
       </c>
@@ -2090,23 +2098,37 @@
       <c r="T20" s="51"/>
       <c r="U20" s="51"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="18">
-        <v>50</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="16"/>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="N21" s="52" t="s">
         <v>146</v>
       </c>
@@ -2120,21 +2142,35 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="18">
-        <v>50</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="15">
+        <v>16</v>
+      </c>
+      <c r="K22" s="20">
+        <v>10</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="N22" s="54" t="s">
         <v>147</v>
       </c>
@@ -2148,21 +2184,35 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" s="18">
-        <v>50</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>5</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="20">
+        <v>10</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
@@ -2174,40 +2224,34 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="19">
-        <v>50</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2260</v>
-      </c>
-      <c r="F24" s="14">
+        <v>83</v>
+      </c>
+      <c r="B24" s="18">
+        <v>25</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="14">
-        <v>5</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="G24" s="18">
+        <v>5</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="20">
+      <c r="J24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="37">
         <v>10</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>182</v>
+      <c r="L24" s="62" t="s">
+        <v>180</v>
       </c>
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
@@ -2218,43 +2262,17 @@
       <c r="T24" s="51"/>
       <c r="U24" s="51"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="19">
-        <v>50</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2260</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
-        <v>5</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="20">
-        <v>10</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>184</v>
-      </c>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36"/>
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
       <c r="P25" s="51"/>
@@ -2294,162 +2312,20 @@
       <c r="T29" s="51"/>
       <c r="U29" s="51"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="51"/>
       <c r="T30" s="51"/>
       <c r="U30" s="51"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>55</v>
-      </c>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q31" s="51"/>
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
       <c r="T31" s="51"/>
       <c r="U31" s="51"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="18">
-        <v>25</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>5</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="15">
-        <v>16</v>
-      </c>
-      <c r="K32" s="20">
-        <v>10</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="18">
-        <v>25</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>5</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K33" s="20">
-        <v>10</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="18">
-        <v>50</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="19">
-        <v>5000</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18">
-        <v>5</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="37">
-        <v>10</v>
-      </c>
-      <c r="L34" s="74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="18">
-        <v>50</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="36"/>
-    </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -2488,12 +2364,12 @@
       <c r="L39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="62" t="s">
+      <c r="O39" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2512,10 +2388,10 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2534,16 +2410,16 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2641,97 +2517,97 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2753,12 +2629,12 @@
       <c r="E11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -3663,7 +3539,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,77 +3560,77 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="O4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="O4" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3765,18 +3641,18 @@
       <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
@@ -3901,12 +3777,12 @@
         <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="73" t="s">
+      <c r="O10" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3949,10 +3825,10 @@
         <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3995,10 +3871,10 @@
         <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -4088,12 +3964,12 @@
       <c r="N14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="O14" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -4110,10 +3986,10 @@
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
@@ -4156,10 +4032,10 @@
         <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4202,10 +4078,10 @@
         <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -4248,10 +4124,10 @@
         <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -4294,10 +4170,10 @@
         <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4631,37 +4507,37 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4672,25 +4548,25 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4704,10 +4580,10 @@
       <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="197">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -403,12 +403,6 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>evaluation*</t>
-  </si>
-  <si>
-    <t>* We tried two types of evaluating individuals, partial = evaluating fitness only in changed invididuals in population; full = evaluating all individuals in population</t>
-  </si>
-  <si>
     <t>partial</t>
   </si>
   <si>
@@ -517,9 +511,6 @@
     <t>64.0% (160/250)</t>
   </si>
   <si>
-    <t>ESN+SEA</t>
-  </si>
-  <si>
     <t>0.8, 0.2</t>
   </si>
   <si>
@@ -572,6 +563,51 @@
   </si>
   <si>
     <t>4195.82</t>
+  </si>
+  <si>
+    <t>4475.9</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4389.55</t>
+  </si>
+  <si>
+    <t>3386.75</t>
+  </si>
+  <si>
+    <t>20h 16m</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Apx. Time:</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>295.29</t>
+  </si>
+  <si>
+    <t>1 lap, Aalborg, Score: distance_raced</t>
   </si>
 </sst>
 </file>
@@ -648,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1019,11 +1055,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,9 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1227,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,6 +1263,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,78 +1607,78 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1632,19 +1689,19 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="64"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1683,16 +1740,18 @@
       <c r="L10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
+      <c r="M10" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1717,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>9</v>
@@ -1729,16 +1788,18 @@
         <v>10</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
+        <v>150</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1763,30 +1824,32 @@
         <v>5</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K12" s="20">
         <v>10</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
+        <v>155</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1811,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>9</v>
@@ -1823,18 +1886,20 @@
         <v>10</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
+        <v>156</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1844,10 +1909,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="14">
         <v>1270</v>
@@ -1859,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>9</v>
@@ -1871,18 +1936,20 @@
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="N14" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
+        <v>159</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1907,28 +1974,30 @@
         <v>5</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K15" s="20">
         <v>10</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -1938,10 +2007,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="14">
         <v>800</v>
@@ -1953,30 +2022,32 @@
         <v>5</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K16" s="20">
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
+        <v>173</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -2001,32 +2072,34 @@
         <v>5</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K17" s="20">
         <v>10</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="M17" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>91</v>
       </c>
@@ -2049,54 +2122,56 @@
         <v>5</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K18" s="20">
         <v>10</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="48" t="s">
+      <c r="L18" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M19" s="8"/>
+      <c r="O19" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="8"/>
+      <c r="O20" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -2129,16 +2204,18 @@
       <c r="L21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
+      <c r="M21" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -2169,18 +2246,20 @@
         <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="N22" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
+        <v>174</v>
+      </c>
+      <c r="M22" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -2205,22 +2284,25 @@
         <v>9</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K23" s="20">
         <v>10</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
+        <v>176</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
@@ -2250,176 +2332,231 @@
       <c r="K24" s="37">
         <v>10</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="18">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3510</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>5</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="37">
+        <v>10</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="U25" s="50"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="18">
+        <v>25</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2150</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>5</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="36"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="U25" s="51"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
+      <c r="K26" s="37">
+        <v>10</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
+      <c r="M27" s="8"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O39" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="A31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B31" s="14">
         <v>50</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
+      <c r="C31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="14">
+        <v>600</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="15">
+        <v>10</v>
+      </c>
+      <c r="L31" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="14">
-        <v>50</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2496,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -2517,97 +2654,97 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2629,12 +2766,12 @@
       <c r="E11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="66"/>
+      <c r="F11" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2998,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="19">
+        <v>5</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="L19" s="19">
-        <v>5</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>164</v>
-      </c>
       <c r="N19" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="10"/>
@@ -3229,16 +3366,16 @@
         <v>9</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L26" s="19">
         <v>5</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3405,10 +3542,10 @@
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>125</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3471,10 +3608,10 @@
         <v>5</v>
       </c>
       <c r="M37" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3512,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="M38" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -3560,77 +3697,77 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="O4" s="72" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="O4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3641,18 +3778,18 @@
       <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="66"/>
+      <c r="F7" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
@@ -3777,12 +3914,12 @@
         <v>43</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="74" t="s">
+      <c r="O10" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3825,10 +3962,10 @@
         <v>46</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3871,10 +4008,10 @@
         <v>48</v>
       </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3964,12 +4101,12 @@
       <c r="N14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -3986,10 +4123,10 @@
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
@@ -4032,10 +4169,10 @@
         <v>106</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4078,10 +4215,10 @@
         <v>107</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -4124,10 +4261,10 @@
         <v>108</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -4170,10 +4307,10 @@
         <v>115</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4379,16 +4516,16 @@
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="43" t="s">
+      <c r="F27" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="42" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4428,8 +4565,8 @@
       <c r="E28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>130</v>
+      <c r="F28" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="G28" s="14">
         <v>250</v>
@@ -4437,7 +4574,7 @@
       <c r="H28" s="14">
         <v>0</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>5</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -4447,10 +4584,10 @@
         <v>34</v>
       </c>
       <c r="L28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4488,7 +4625,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,37 +4644,37 @@
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4548,25 +4685,25 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
@@ -4580,10 +4717,10 @@
       <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="64"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4626,18 +4763,18 @@
         <v>55</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>11</v>
@@ -4652,34 +4789,58 @@
         <v>2</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="61"/>
+      <c r="A12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="19">
+        <v>900</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -4693,7 +4854,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="61"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -4707,7 +4868,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="61"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -4721,7 +4882,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="61"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Experiments/comparison.xlsx
+++ b/Experiments/comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2048" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="182">
   <si>
     <t>Comparison of models</t>
   </si>
@@ -55,12 +55,6 @@
     <t>uniform, 0.1, 0.1</t>
   </si>
   <si>
-    <t>uniform, 0.05, 0.1</t>
-  </si>
-  <si>
-    <t>selbest</t>
-  </si>
-  <si>
     <t>0.2, 0.5</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>TORCS</t>
   </si>
   <si>
-    <t>120.44</t>
-  </si>
-  <si>
     <t>0.98</t>
   </si>
   <si>
@@ -142,39 +133,6 @@
     <t>0.66</t>
   </si>
   <si>
-    <t>0.2, 0.2</t>
-  </si>
-  <si>
-    <t>112.69</t>
-  </si>
-  <si>
-    <t>['107.51', '120.37', '121.53']</t>
-  </si>
-  <si>
-    <t>114.43</t>
-  </si>
-  <si>
-    <t>119.63</t>
-  </si>
-  <si>
-    <t>['114.13', '119.67', '118.02']</t>
-  </si>
-  <si>
-    <t>117.44</t>
-  </si>
-  <si>
-    <t>['116.56', '116.23', '119.43']</t>
-  </si>
-  <si>
-    <t>121.09</t>
-  </si>
-  <si>
-    <t>['115.15', '121.65', '115.7']</t>
-  </si>
-  <si>
-    <t>['119.77', '113.98', '118.1']</t>
-  </si>
-  <si>
     <t>solver type</t>
   </si>
   <si>
@@ -253,9 +211,6 @@
     <t>Relative Comparison*</t>
   </si>
   <si>
-    <t>['112.48', '119.44', '117.92']</t>
-  </si>
-  <si>
     <t>133.78</t>
   </si>
   <si>
@@ -313,12 +268,6 @@
     <t>** notice that the Alhambra "model" within the game is still the same (rule system has just random "weights")</t>
   </si>
   <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>↑ There was a bug within the game phases, causing that individual weights were shared amongst phases (all phases used first 'n' values); leaving results here just for compare</t>
-  </si>
-  <si>
     <t>Individual length = dimension of centroid to optimize</t>
   </si>
   <si>
@@ -403,15 +352,9 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>partial</t>
-  </si>
-  <si>
     <t>137.37</t>
   </si>
   <si>
-    <t>evaluation</t>
-  </si>
-  <si>
     <t>123.948 (116.744, 117.088)</t>
   </si>
   <si>
@@ -608,13 +551,25 @@
   </si>
   <si>
     <t>1 lap, Aalborg, Score: distance_raced</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>9h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,15 +593,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,12 +625,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1072,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,10 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,15 +1190,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,80 +1540,80 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+        <v>106</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1689,23 +1624,23 @@
       <c r="D9" s="11">
         <v>2048</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="64"/>
+      <c r="E9" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
       <c r="L9" s="8"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1732,36 +1667,36 @@
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B11" s="13">
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>11</v>
@@ -1776,40 +1711,40 @@
         <v>5</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K11" s="15">
         <v>10</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B12" s="13">
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
@@ -1824,42 +1759,42 @@
         <v>5</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K12" s="20">
         <v>10</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
+        <v>136</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B13" s="13">
         <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -1874,45 +1809,45 @@
         <v>5</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K13" s="20">
         <v>10</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+        <v>137</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13">
         <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E14" s="14">
         <v>1270</v>
@@ -1924,42 +1859,42 @@
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K14" s="20">
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B15" s="13">
         <v>50</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -1974,43 +1909,43 @@
         <v>5</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K15" s="20">
         <v>10</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
+        <v>142</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" s="13">
         <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E16" s="14">
         <v>800</v>
@@ -2022,42 +1957,42 @@
         <v>5</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K16" s="20">
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="O16" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
+        <v>154</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B17" s="19">
         <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -2072,42 +2007,42 @@
         <v>5</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K17" s="20">
         <v>10</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
+        <v>160</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B18" s="19">
         <v>50</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -2122,66 +2057,66 @@
         <v>5</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K18" s="20">
         <v>10</v>
       </c>
-      <c r="L18" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="O18" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
+      <c r="L18" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M19" s="8"/>
-      <c r="O19" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
+      <c r="O19" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M20" s="8"/>
-      <c r="O20" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
+      <c r="O20" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -2196,36 +2131,36 @@
         <v>7</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="O21" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="M21" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B22" s="18">
         <v>25</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E22" s="19">
         <v>5000</v>
@@ -2246,30 +2181,30 @@
         <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M22" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
+        <v>155</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B23" s="18">
         <v>25</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E23" s="19">
         <v>5000</v>
@@ -2284,35 +2219,35 @@
         <v>9</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K23" s="20">
         <v>10</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M23" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
+        <v>157</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B24" s="18">
         <v>25</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E24" s="19">
         <v>5000</v>
@@ -2327,35 +2262,35 @@
         <v>9</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="37">
+        <v>31</v>
+      </c>
+      <c r="K24" s="35">
         <v>10</v>
       </c>
-      <c r="L24" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
+      <c r="L24" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B25" s="18">
         <v>25</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E25" s="19">
         <v>3510</v>
@@ -2370,34 +2305,34 @@
         <v>9</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="37">
+        <v>31</v>
+      </c>
+      <c r="K25" s="35">
         <v>10</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="M25" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="U25" s="50"/>
+        <v>165</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="U25" s="48"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B26" s="18">
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E26" s="19">
         <v>2150</v>
@@ -2412,100 +2347,100 @@
         <v>9</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="37">
+        <v>161</v>
+      </c>
+      <c r="K26" s="35">
         <v>10</v>
       </c>
-      <c r="L26" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="M26" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
+      <c r="L26" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M27" s="8"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="40" t="s">
-        <v>53</v>
+      <c r="J30" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="M30" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B31" s="14">
         <v>50</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E31" s="14">
         <v>600</v>
@@ -2517,46 +2452,46 @@
         <v>9</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K31" s="15">
         <v>10</v>
       </c>
-      <c r="L31" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
+      <c r="L31" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -2652,99 +2587,99 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+        <v>19</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+        <v>77</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+        <v>106</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2764,14 +2699,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="O11" s="10"/>
@@ -2780,10 +2715,10 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -2810,16 +2745,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="10"/>
@@ -2827,16 +2762,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14">
         <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>11</v>
@@ -2863,10 +2798,10 @@
         <v>5</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="10"/>
@@ -2874,16 +2809,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="19">
         <v>25</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>11</v>
@@ -2904,16 +2839,16 @@
         <v>9</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="20">
         <v>5</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="10"/>
@@ -2921,19 +2856,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="19">
         <v>25</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="19">
         <v>50</v>
@@ -2951,33 +2886,33 @@
         <v>9</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L15" s="20">
         <v>5</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25">
         <v>25</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="25">
         <v>100</v>
@@ -2989,36 +2924,36 @@
         <v>5</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" s="26">
         <v>5</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="19">
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>11</v>
@@ -3039,16 +2974,16 @@
         <v>9</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L17" s="19">
         <v>5</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="10"/>
@@ -3056,16 +2991,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="19">
         <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>11</v>
@@ -3086,35 +3021,35 @@
         <v>9</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L18" s="19">
         <v>5</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="19">
         <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>11</v>
@@ -3135,16 +3070,16 @@
         <v>9</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L19" s="19">
         <v>5</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="10"/>
@@ -3160,19 +3095,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="19">
         <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" s="19">
         <v>110</v>
@@ -3190,33 +3125,33 @@
         <v>9</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L22" s="19">
         <v>5</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="19">
         <v>25</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" s="19">
         <v>500</v>
@@ -3240,27 +3175,27 @@
         <v>5</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="19">
         <v>25</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F24" s="19">
         <v>1000</v>
@@ -3272,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>9</v>
@@ -3284,24 +3219,24 @@
         <v>5</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="19">
         <v>25</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>11</v>
@@ -3316,36 +3251,36 @@
         <v>5</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="19">
+        <v>5</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="19">
-        <v>5</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>113</v>
-      </c>
       <c r="N25" s="19" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="19">
         <v>25</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>11</v>
@@ -3360,37 +3295,37 @@
         <v>5</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L26" s="19">
         <v>5</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3405,30 +3340,30 @@
         <v>7</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="14">
         <v>10</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F31" s="14">
         <v>100</v>
@@ -3449,24 +3384,24 @@
         <v>5</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="14">
         <v>20</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F32" s="14">
         <v>500</v>
@@ -3481,30 +3416,30 @@
         <v>9</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L32" s="15">
         <v>5</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="14">
         <v>20</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F33" s="14">
         <v>500</v>
@@ -3525,28 +3460,28 @@
         <v>5</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>125</v>
+      <c r="D36" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>3</v>
@@ -3561,33 +3496,33 @@
         <v>7</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" s="14">
         <v>20</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F37" s="14">
         <v>510</v>
@@ -3602,33 +3537,33 @@
         <v>9</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L37" s="15">
         <v>5</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C38" s="14">
         <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F38" s="14">
         <v>530</v>
@@ -3643,16 +3578,16 @@
         <v>9</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L38" s="15">
         <v>5</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3675,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,84 +3625,84 @@
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="O4" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="O4" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+        <v>78</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -3776,27 +3711,27 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="64"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="62"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
@@ -3823,74 +3758,80 @@
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14">
-        <v>180</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25">
+        <v>20</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="25">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
-        <v>5</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="25">
+        <v>5</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="14">
-        <v>16</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>78</v>
+      <c r="K9" s="25">
+        <v>32</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>81</v>
+      <c r="A10" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="19">
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="19">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
@@ -3904,87 +3845,91 @@
       <c r="J10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="19">
-        <v>16</v>
+      <c r="K10" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
+        <v>73</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="25">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="19">
-        <v>200</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="25">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
-        <v>5</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="25">
+        <v>5</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="19">
-        <v>16</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
+      <c r="K11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>81</v>
+      <c r="A12" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="19">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F12" s="19">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="19">
         <v>0</v>
@@ -3998,39 +3943,41 @@
       <c r="J12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="19">
-        <v>16</v>
+      <c r="K12" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="19">
         <v>20</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="19">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -4039,323 +3986,75 @@
         <v>5</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>180</v>
+      </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="14">
-        <v>500</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="14">
-        <v>32</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-    </row>
-    <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N15" s="17"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="25">
-        <v>20</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>5</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="25">
-        <v>32</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="19">
-        <v>20</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="19">
-        <v>450</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>5</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>107</v>
-      </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="25">
-        <v>20</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="25">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>5</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>108</v>
-      </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="19">
-        <v>20</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="19">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>5</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
@@ -4378,16 +4077,16 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="3" t="s">
@@ -4403,31 +4102,33 @@
         <v>7</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>174</v>
+      </c>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="14">
         <v>20</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F23" s="14">
         <v>850</v>
@@ -4442,15 +4143,17 @@
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>181</v>
+      </c>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
@@ -4508,24 +4211,21 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>126</v>
+      <c r="D27" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4538,35 +4238,35 @@
         <v>7</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="N27" s="69" t="s">
+        <v>174</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="14">
         <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G28" s="14">
         <v>250</v>
@@ -4574,20 +4274,23 @@
       <c r="H28" s="14">
         <v>0</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="39">
         <v>5</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>131</v>
+        <v>111</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4595,17 +4298,16 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O14:R19"/>
+  <mergeCells count="8">
     <mergeCell ref="O10:R12"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4622,10 +4324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,89 +4340,90 @@
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="42.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4728,9 +4431,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -4757,24 +4460,27 @@
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>11</v>
@@ -4789,30 +4495,33 @@
         <v>2</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B12" s="19">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>11</v>
@@ -4827,22 +4536,25 @@
         <v>2</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4856,7 +4568,7 @@
       <c r="K13" s="20"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4870,7 +4582,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4887,13 +4599,13 @@
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -4912,10 +4624,10 @@
         <v>7</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L18" s="17"/>
     </row>
